--- a/data/Supplementary_Tables.xlsx
+++ b/data/Supplementary_Tables.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimir.shitov/Documents/science/PhD/2022_12_kaggle_competition_analysis/code/publication_final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimir.shitov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE28B1C6-9004-554D-9544-2C3FB8355DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F96319C-357F-2449-A16C-7611B769237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary table 3" sheetId="4" r:id="rId1"/>
     <sheet name="Supplementary table 4" sheetId="3" r:id="rId2"/>
     <sheet name="Supplementary table 5" sheetId="1" r:id="rId3"/>
     <sheet name="Supplementary table 6" sheetId="2" r:id="rId4"/>
+    <sheet name="Supplementary table 7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1747">
   <si>
     <t>Score_public</t>
   </si>
@@ -4978,12 +4979,765 @@
   <si>
     <t>Name</t>
   </si>
+  <si>
+    <t>Protein ID</t>
+  </si>
+  <si>
+    <t>Ensembl Gene ID</t>
+  </si>
+  <si>
+    <t>CD101</t>
+  </si>
+  <si>
+    <t>ENSG00000134256</t>
+  </si>
+  <si>
+    <t>CD103</t>
+  </si>
+  <si>
+    <t>ENSG00000083457</t>
+  </si>
+  <si>
+    <t>CD107a</t>
+  </si>
+  <si>
+    <t>ENSG00000185896</t>
+  </si>
+  <si>
+    <t>CD112</t>
+  </si>
+  <si>
+    <t>ENSG00000130202</t>
+  </si>
+  <si>
+    <t>CD115</t>
+  </si>
+  <si>
+    <t>ENSG00000182578</t>
+  </si>
+  <si>
+    <t>CD119</t>
+  </si>
+  <si>
+    <t>ENSG00000027697</t>
+  </si>
+  <si>
+    <t>CD11a</t>
+  </si>
+  <si>
+    <t>ENSG00000005844</t>
+  </si>
+  <si>
+    <t>CD11b</t>
+  </si>
+  <si>
+    <t>ENSG00000169896</t>
+  </si>
+  <si>
+    <t>CD11c</t>
+  </si>
+  <si>
+    <t>ENSG00000140678</t>
+  </si>
+  <si>
+    <t>CD122</t>
+  </si>
+  <si>
+    <t>ENSG00000100385</t>
+  </si>
+  <si>
+    <t>CD123</t>
+  </si>
+  <si>
+    <t>ENSG00000185291, ENSG00000292332</t>
+  </si>
+  <si>
+    <t>CD124</t>
+  </si>
+  <si>
+    <t>ENSG00000077238</t>
+  </si>
+  <si>
+    <t>CD127</t>
+  </si>
+  <si>
+    <t>ENSG00000168685</t>
+  </si>
+  <si>
+    <t>CD13</t>
+  </si>
+  <si>
+    <t>ENSG00000166825</t>
+  </si>
+  <si>
+    <t>CD134</t>
+  </si>
+  <si>
+    <t>ENSG00000186827</t>
+  </si>
+  <si>
+    <t>CD137</t>
+  </si>
+  <si>
+    <t>ENSG00000049249</t>
+  </si>
+  <si>
+    <t>CD14</t>
+  </si>
+  <si>
+    <t>ENSG00000131495</t>
+  </si>
+  <si>
+    <t>ENSG00000170458</t>
+  </si>
+  <si>
+    <t>CD141</t>
+  </si>
+  <si>
+    <t>ENSG00000178726</t>
+  </si>
+  <si>
+    <t>CD142</t>
+  </si>
+  <si>
+    <t>ENSG00000117525</t>
+  </si>
+  <si>
+    <t>CD146</t>
+  </si>
+  <si>
+    <t>ENSG00000076706</t>
+  </si>
+  <si>
+    <t>CD152</t>
+  </si>
+  <si>
+    <t>ENSG00000163599</t>
+  </si>
+  <si>
+    <t>CD154</t>
+  </si>
+  <si>
+    <t>ENSG00000102245</t>
+  </si>
+  <si>
+    <t>CD155</t>
+  </si>
+  <si>
+    <t>ENSG00000073008</t>
+  </si>
+  <si>
+    <t>CD158b</t>
+  </si>
+  <si>
+    <t>ENSG00000274108, ENSG00000283708, ENSG00000284241, ENSG00000275623, ENSG00000277317, ENSG00000284236, ENSG00000274410, ENSG00000275008, ENSG00000283702, ENSG00000277484, ENSG00000274830, ENSG00000284044, ENSG00000276590, ENSG00000284510, ENSG00000243772, ENSG00000274952, ENSG00000277924, ENSG00000284333, ENSG00000284132, ENSG00000283996, ENSG00000276218, ENSG00000277554, ENSG00000278327, ENSG00000284504, ENSG00000283790, ENSG00000274402, ENSG00000273947, ENSG00000273887, ENSG00000276459, ENSG00000278369, ENSG00000275658</t>
+  </si>
+  <si>
+    <t>ENSG00000276011, ENSG00000275914, ENSG00000278731, ENSG00000278692, ENSG00000275546, ENSG00000274412, ENSG00000277725, ENSG00000277251, ENSG00000276731, ENSG00000273661, ENSG00000273578, ENSG00000275960</t>
+  </si>
+  <si>
+    <t>ENSG00000274518, ENSG00000275452, ENSG00000275735, ENSG00000278300, ENSG00000274438, ENSG00000275253, ENSG00000276425, ENSG00000276139, ENSG00000276258, ENSG00000277885, ENSG00000278152, ENSG00000275737</t>
+  </si>
+  <si>
+    <t>CD158e1</t>
+  </si>
+  <si>
+    <t>ENSG00000274948, ENSG00000273775, ENSG00000283731, ENSG00000284093, ENSG00000274036, ENSG00000274920, ENSG00000284426, ENSG00000276329, ENSG00000275717, ENSG00000276423, ENSG00000284177, ENSG00000284589, ENSG00000284342, ENSG00000275659, ENSG00000276379, ENSG00000275786, ENSG00000275486, ENSG00000283827, ENSG00000278079, ENSG00000277175, ENSG00000278856, ENSG00000276501, ENSG00000273518, ENSG00000275545, ENSG00000278368, ENSG00000167633, ENSG00000277272, ENSG00000274146, ENSG00000278427, ENSG00000283954, ENSG00000283729, ENSG00000275288</t>
+  </si>
+  <si>
+    <t>CD16</t>
+  </si>
+  <si>
+    <t>ENSG00000203747</t>
+  </si>
+  <si>
+    <t>ENSG00000162747</t>
+  </si>
+  <si>
+    <t>CD161</t>
+  </si>
+  <si>
+    <t>ENSG00000111796</t>
+  </si>
+  <si>
+    <t>CD162</t>
+  </si>
+  <si>
+    <t>ENSG00000110876</t>
+  </si>
+  <si>
+    <t>CD163</t>
+  </si>
+  <si>
+    <t>ENSG00000177575</t>
+  </si>
+  <si>
+    <t>CD169</t>
+  </si>
+  <si>
+    <t>ENSG00000088827</t>
+  </si>
+  <si>
+    <t>CD172a</t>
+  </si>
+  <si>
+    <t>ENSG00000198053</t>
+  </si>
+  <si>
+    <t>CD18</t>
+  </si>
+  <si>
+    <t>ENSG00000160255</t>
+  </si>
+  <si>
+    <t>CD185</t>
+  </si>
+  <si>
+    <t>ENSG00000160683</t>
+  </si>
+  <si>
+    <t>CD19</t>
+  </si>
+  <si>
+    <t>ENSG00000177455</t>
+  </si>
+  <si>
+    <t>CD192</t>
+  </si>
+  <si>
+    <t>ENSG00000121807</t>
+  </si>
+  <si>
+    <t>CD194</t>
+  </si>
+  <si>
+    <t>ENSG00000183813</t>
+  </si>
+  <si>
+    <t>CD195</t>
+  </si>
+  <si>
+    <t>ENSG00000160791</t>
+  </si>
+  <si>
+    <t>CD196</t>
+  </si>
+  <si>
+    <t>ENSG00000112486</t>
+  </si>
+  <si>
+    <t>CD1c</t>
+  </si>
+  <si>
+    <t>ENSG00000158481</t>
+  </si>
+  <si>
+    <t>CD1d</t>
+  </si>
+  <si>
+    <t>ENSG00000158473</t>
+  </si>
+  <si>
+    <t>CD2</t>
+  </si>
+  <si>
+    <t>ENSG00000116824</t>
+  </si>
+  <si>
+    <t>CD20</t>
+  </si>
+  <si>
+    <t>ENSG00000171431, ENSG00000263057</t>
+  </si>
+  <si>
+    <t>ENSG00000156738</t>
+  </si>
+  <si>
+    <t>CD21</t>
+  </si>
+  <si>
+    <t>ENSG00000117322</t>
+  </si>
+  <si>
+    <t>CD22</t>
+  </si>
+  <si>
+    <t>ENSG00000012124</t>
+  </si>
+  <si>
+    <t>CD223</t>
+  </si>
+  <si>
+    <t>ENSG00000089692</t>
+  </si>
+  <si>
+    <t>CD224</t>
+  </si>
+  <si>
+    <t>ENSG00000100031</t>
+  </si>
+  <si>
+    <t>CD226</t>
+  </si>
+  <si>
+    <t>ENSG00000150637</t>
+  </si>
+  <si>
+    <t>CD23</t>
+  </si>
+  <si>
+    <t>ENSG00000104921</t>
+  </si>
+  <si>
+    <t>CD24</t>
+  </si>
+  <si>
+    <t>ENSG00000272398</t>
+  </si>
+  <si>
+    <t>CD244</t>
+  </si>
+  <si>
+    <t>ENSG00000122223</t>
+  </si>
+  <si>
+    <t>CD25</t>
+  </si>
+  <si>
+    <t>ENSG00000172183</t>
+  </si>
+  <si>
+    <t>ENSG00000134460</t>
+  </si>
+  <si>
+    <t>CD26</t>
+  </si>
+  <si>
+    <t>ENSG00000197635</t>
+  </si>
+  <si>
+    <t>CD268</t>
+  </si>
+  <si>
+    <t>ENSG00000159958</t>
+  </si>
+  <si>
+    <t>CD27</t>
+  </si>
+  <si>
+    <t>ENSG00000139193</t>
+  </si>
+  <si>
+    <t>CD270</t>
+  </si>
+  <si>
+    <t>ENSG00000157873, ENSG00000273936</t>
+  </si>
+  <si>
+    <t>CD272</t>
+  </si>
+  <si>
+    <t>ENSG00000186265</t>
+  </si>
+  <si>
+    <t>CD274</t>
+  </si>
+  <si>
+    <t>ENSG00000120217</t>
+  </si>
+  <si>
+    <t>CD278</t>
+  </si>
+  <si>
+    <t>ENSG00000163600</t>
+  </si>
+  <si>
+    <t>CD279</t>
+  </si>
+  <si>
+    <t>ENSG00000276977, ENSG00000188389</t>
+  </si>
+  <si>
+    <t>CD28</t>
+  </si>
+  <si>
+    <t>ENSG00000178562</t>
+  </si>
+  <si>
+    <t>CD29</t>
+  </si>
+  <si>
+    <t>ENSG00000150093</t>
+  </si>
+  <si>
+    <t>CD303</t>
+  </si>
+  <si>
+    <t>ENSG00000198178</t>
+  </si>
+  <si>
+    <t>CD304</t>
+  </si>
+  <si>
+    <t>ENSG00000099250</t>
+  </si>
+  <si>
+    <t>CD31</t>
+  </si>
+  <si>
+    <t>ENSG00000261371</t>
+  </si>
+  <si>
+    <t>CD314</t>
+  </si>
+  <si>
+    <t>ENSG00000213809</t>
+  </si>
+  <si>
+    <t>CD319</t>
+  </si>
+  <si>
+    <t>ENSG00000026751</t>
+  </si>
+  <si>
+    <t>CD32</t>
+  </si>
+  <si>
+    <t>ENSG00000072694</t>
+  </si>
+  <si>
+    <t>ENSG00000143226</t>
+  </si>
+  <si>
+    <t>CD328</t>
+  </si>
+  <si>
+    <t>ENSG00000168995</t>
+  </si>
+  <si>
+    <t>CD33</t>
+  </si>
+  <si>
+    <t>ENSG00000105383</t>
+  </si>
+  <si>
+    <t>CD335</t>
+  </si>
+  <si>
+    <t>ENSG00000275521, ENSG00000273916, ENSG00000277442, ENSG00000273506, ENSG00000276450, ENSG00000277824, ENSG00000278362, ENSG00000278025, ENSG00000275637, ENSG00000275822, ENSG00000274053, ENSG00000277629, ENSG00000189430, ENSG00000275156, ENSG00000273535, ENSG00000277334</t>
+  </si>
+  <si>
+    <t>CD35</t>
+  </si>
+  <si>
+    <t>ENSG00000203710</t>
+  </si>
+  <si>
+    <t>CD352</t>
+  </si>
+  <si>
+    <t>ENSG00000162739</t>
+  </si>
+  <si>
+    <t>CD36</t>
+  </si>
+  <si>
+    <t>ENSG00000135218</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>ENSG00000004468</t>
+  </si>
+  <si>
+    <t>CD39</t>
+  </si>
+  <si>
+    <t>ENSG00000138185</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>ENSG00000010610</t>
+  </si>
+  <si>
+    <t>CD40</t>
+  </si>
+  <si>
+    <t>ENSG00000101017</t>
+  </si>
+  <si>
+    <t>CD41</t>
+  </si>
+  <si>
+    <t>ENSG00000005961</t>
+  </si>
+  <si>
+    <t>CD42b</t>
+  </si>
+  <si>
+    <t>ENSG00000185245</t>
+  </si>
+  <si>
+    <t>CD44</t>
+  </si>
+  <si>
+    <t>ENSG00000026508</t>
+  </si>
+  <si>
+    <t>CD45</t>
+  </si>
+  <si>
+    <t>ENSG00000262418, ENSG00000081237</t>
+  </si>
+  <si>
+    <t>CD47</t>
+  </si>
+  <si>
+    <t>ENSG00000196776</t>
+  </si>
+  <si>
+    <t>CD48</t>
+  </si>
+  <si>
+    <t>ENSG00000117091</t>
+  </si>
+  <si>
+    <t>CD49a</t>
+  </si>
+  <si>
+    <t>ENSG00000213949</t>
+  </si>
+  <si>
+    <t>CD49b</t>
+  </si>
+  <si>
+    <t>ENSG00000164171</t>
+  </si>
+  <si>
+    <t>CD49d</t>
+  </si>
+  <si>
+    <t>ENSG00000115232</t>
+  </si>
+  <si>
+    <t>CD49f</t>
+  </si>
+  <si>
+    <t>ENSG00000091409</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>ENSG00000110448</t>
+  </si>
+  <si>
+    <t>CD52</t>
+  </si>
+  <si>
+    <t>ENSG00000169442</t>
+  </si>
+  <si>
+    <t>CD54</t>
+  </si>
+  <si>
+    <t>ENSG00000090339</t>
+  </si>
+  <si>
+    <t>CD56</t>
+  </si>
+  <si>
+    <t>ENSG00000149294</t>
+  </si>
+  <si>
+    <t>CD57</t>
+  </si>
+  <si>
+    <t>ENSG00000109956</t>
+  </si>
+  <si>
+    <t>CD58</t>
+  </si>
+  <si>
+    <t>ENSG00000116815</t>
+  </si>
+  <si>
+    <t>CD62L</t>
+  </si>
+  <si>
+    <t>ENSG00000188404</t>
+  </si>
+  <si>
+    <t>CD62P</t>
+  </si>
+  <si>
+    <t>ENSG00000174175</t>
+  </si>
+  <si>
+    <t>CD63</t>
+  </si>
+  <si>
+    <t>ENSG00000135404</t>
+  </si>
+  <si>
+    <t>CD64</t>
+  </si>
+  <si>
+    <t>ENSG00000150337</t>
+  </si>
+  <si>
+    <t>CD69</t>
+  </si>
+  <si>
+    <t>ENSG00000110848</t>
+  </si>
+  <si>
+    <t>CD7</t>
+  </si>
+  <si>
+    <t>ENSG00000173762</t>
+  </si>
+  <si>
+    <t>CD71</t>
+  </si>
+  <si>
+    <t>ENSG00000072274</t>
+  </si>
+  <si>
+    <t>CD72</t>
+  </si>
+  <si>
+    <t>ENSG00000137101</t>
+  </si>
+  <si>
+    <t>CD73</t>
+  </si>
+  <si>
+    <t>ENSG00000135318</t>
+  </si>
+  <si>
+    <t>CD79b</t>
+  </si>
+  <si>
+    <t>ENSG00000007312</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>ENSG00000153563</t>
+  </si>
+  <si>
+    <t>CD81</t>
+  </si>
+  <si>
+    <t>ENSG00000110651</t>
+  </si>
+  <si>
+    <t>CD82</t>
+  </si>
+  <si>
+    <t>ENSG00000085117</t>
+  </si>
+  <si>
+    <t>CD83</t>
+  </si>
+  <si>
+    <t>ENSG00000112149</t>
+  </si>
+  <si>
+    <t>CD85j</t>
+  </si>
+  <si>
+    <t>ENSG00000276452, ENSG00000274669, ENSG00000277134, ENSG00000104972, ENSG00000277807</t>
+  </si>
+  <si>
+    <t>CD86</t>
+  </si>
+  <si>
+    <t>ENSG00000114013</t>
+  </si>
+  <si>
+    <t>CD88</t>
+  </si>
+  <si>
+    <t>ENSG00000197405</t>
+  </si>
+  <si>
+    <t>CD9</t>
+  </si>
+  <si>
+    <t>ENSG00000010278</t>
+  </si>
+  <si>
+    <t>CD93</t>
+  </si>
+  <si>
+    <t>ENSG00000125810</t>
+  </si>
+  <si>
+    <t>CD94</t>
+  </si>
+  <si>
+    <t>ENSG00000134539</t>
+  </si>
+  <si>
+    <t>CD95</t>
+  </si>
+  <si>
+    <t>ENSG00000026103</t>
+  </si>
+  <si>
+    <t>CX3CR1</t>
+  </si>
+  <si>
+    <t>ENSG00000168329</t>
+  </si>
+  <si>
+    <t>FceRIa</t>
+  </si>
+  <si>
+    <t>ENSG00000179639, ENSG00000291905</t>
+  </si>
+  <si>
+    <t>HLA-E</t>
+  </si>
+  <si>
+    <t>ENSG00000206493, ENSG00000225201, ENSG00000233904, ENSG00000230254, ENSG00000236632, ENSG00000229252, ENSG00000204592</t>
+  </si>
+  <si>
+    <t>IgM</t>
+  </si>
+  <si>
+    <t>KLRG1</t>
+  </si>
+  <si>
+    <t>ENSG00000139187</t>
+  </si>
+  <si>
+    <t>TCR</t>
+  </si>
+  <si>
+    <t>ENSG00000205274</t>
+  </si>
+  <si>
+    <t>TIGIT</t>
+  </si>
+  <si>
+    <t>ENSG00000181847</t>
+  </si>
+  <si>
+    <t>Supplementary table 7. Mapping of proteins to gene IDs for calculation of gene activity matrix for evaluation of integrating prior biological knowledge.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5070,6 +5824,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -5145,7 +5907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5184,9 +5946,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5200,8 +5959,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5555,51 +6322,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>1435</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>1436</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>1437</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>1438</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>1439</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>1440</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>1441</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -5607,7 +6374,7 @@
       <c r="A3" s="13" t="s">
         <v>1491</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>1443</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -5616,13 +6383,13 @@
       <c r="E3" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="26">
         <v>119191</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="26">
         <v>161868</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <f>F3+G3</f>
         <v>281059</v>
       </c>
@@ -5634,19 +6401,19 @@
       <c r="B4" s="13" t="s">
         <v>1447</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>1448</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="26">
         <v>113897</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="26">
         <v>78677</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <f>F4+G4</f>
         <v>192574</v>
       </c>
@@ -5658,16 +6425,16 @@
       <c r="B5" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>1452</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="26" t="s">
         <v>1455</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -5685,7 +6452,7 @@
       <c r="B6" s="13" t="s">
         <v>1458</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>1459</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -5694,16 +6461,16 @@
       <c r="E6" s="13" t="s">
         <v>1461</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="26" t="s">
         <v>1455</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="26">
         <v>135566</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>472464</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <f t="shared" ref="I6:I7" si="0">G6+H6</f>
         <v>608030</v>
       </c>
@@ -5715,7 +6482,7 @@
       <c r="B7" s="13" t="s">
         <v>1463</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>1464</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -5724,10 +6491,10 @@
       <c r="E7" s="13" t="s">
         <v>1466</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="26" t="s">
         <v>1455</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="26">
         <v>330047</v>
       </c>
       <c r="H7" s="13">
@@ -5745,7 +6512,7 @@
       <c r="B8" s="13" t="s">
         <v>1468</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>1469</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -5754,85 +6521,85 @@
       <c r="E8" s="13" t="s">
         <v>1470</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="I8" s="28">
+      <c r="G8" s="26"/>
+      <c r="I8" s="27">
         <v>371000</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>1474</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>1475</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>1476</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>1477</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>1478</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>1479</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>1480</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>1481</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>1460</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>1482</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:18" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>1483</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>1460</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>1484</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -5840,7 +6607,7 @@
       <c r="B16" s="13" t="s">
         <v>1486</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>1487</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -5849,3950 +6616,3950 @@
       <c r="E16" s="13" t="s">
         <v>1489</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>1490</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="6:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26"/>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="26"/>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="26"/>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
+      <c r="F194" s="26"/>
+      <c r="G194" s="26"/>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
+      <c r="F197" s="26"/>
+      <c r="G197" s="26"/>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="26"/>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
+      <c r="F199" s="26"/>
+      <c r="G199" s="26"/>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
     </row>
     <row r="201" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="26"/>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="26"/>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
+      <c r="F210" s="26"/>
+      <c r="G210" s="26"/>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="26"/>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F212" s="27"/>
-      <c r="G212" s="27"/>
+      <c r="F212" s="26"/>
+      <c r="G212" s="26"/>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F214" s="27"/>
-      <c r="G214" s="27"/>
+      <c r="F214" s="26"/>
+      <c r="G214" s="26"/>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F215" s="27"/>
-      <c r="G215" s="27"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F216" s="27"/>
-      <c r="G216" s="27"/>
+      <c r="F216" s="26"/>
+      <c r="G216" s="26"/>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F217" s="27"/>
-      <c r="G217" s="27"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="26"/>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F218" s="27"/>
-      <c r="G218" s="27"/>
+      <c r="F218" s="26"/>
+      <c r="G218" s="26"/>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F219" s="27"/>
-      <c r="G219" s="27"/>
+      <c r="F219" s="26"/>
+      <c r="G219" s="26"/>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="26"/>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
+      <c r="F221" s="26"/>
+      <c r="G221" s="26"/>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F222" s="27"/>
-      <c r="G222" s="27"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="26"/>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F223" s="27"/>
-      <c r="G223" s="27"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="26"/>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F224" s="27"/>
-      <c r="G224" s="27"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="26"/>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
+      <c r="F227" s="26"/>
+      <c r="G227" s="26"/>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
+      <c r="F228" s="26"/>
+      <c r="G228" s="26"/>
     </row>
     <row r="229" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="26"/>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="26"/>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="26"/>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
+      <c r="F233" s="26"/>
+      <c r="G233" s="26"/>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F234" s="27"/>
-      <c r="G234" s="27"/>
+      <c r="F234" s="26"/>
+      <c r="G234" s="26"/>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
+      <c r="F235" s="26"/>
+      <c r="G235" s="26"/>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
+      <c r="F236" s="26"/>
+      <c r="G236" s="26"/>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F237" s="27"/>
-      <c r="G237" s="27"/>
+      <c r="F237" s="26"/>
+      <c r="G237" s="26"/>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F238" s="27"/>
-      <c r="G238" s="27"/>
+      <c r="F238" s="26"/>
+      <c r="G238" s="26"/>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="26"/>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F240" s="27"/>
-      <c r="G240" s="27"/>
+      <c r="F240" s="26"/>
+      <c r="G240" s="26"/>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F241" s="27"/>
-      <c r="G241" s="27"/>
+      <c r="F241" s="26"/>
+      <c r="G241" s="26"/>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F242" s="27"/>
-      <c r="G242" s="27"/>
+      <c r="F242" s="26"/>
+      <c r="G242" s="26"/>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F243" s="27"/>
-      <c r="G243" s="27"/>
+      <c r="F243" s="26"/>
+      <c r="G243" s="26"/>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F244" s="27"/>
-      <c r="G244" s="27"/>
+      <c r="F244" s="26"/>
+      <c r="G244" s="26"/>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F245" s="27"/>
-      <c r="G245" s="27"/>
+      <c r="F245" s="26"/>
+      <c r="G245" s="26"/>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F246" s="27"/>
-      <c r="G246" s="27"/>
+      <c r="F246" s="26"/>
+      <c r="G246" s="26"/>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F247" s="27"/>
-      <c r="G247" s="27"/>
+      <c r="F247" s="26"/>
+      <c r="G247" s="26"/>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
+      <c r="F248" s="26"/>
+      <c r="G248" s="26"/>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F249" s="27"/>
-      <c r="G249" s="27"/>
+      <c r="F249" s="26"/>
+      <c r="G249" s="26"/>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F250" s="27"/>
-      <c r="G250" s="27"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="26"/>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F251" s="27"/>
-      <c r="G251" s="27"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="26"/>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F252" s="27"/>
-      <c r="G252" s="27"/>
+      <c r="F252" s="26"/>
+      <c r="G252" s="26"/>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F253" s="27"/>
-      <c r="G253" s="27"/>
+      <c r="F253" s="26"/>
+      <c r="G253" s="26"/>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F254" s="27"/>
-      <c r="G254" s="27"/>
+      <c r="F254" s="26"/>
+      <c r="G254" s="26"/>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
+      <c r="F255" s="26"/>
+      <c r="G255" s="26"/>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
+      <c r="F256" s="26"/>
+      <c r="G256" s="26"/>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F257" s="27"/>
-      <c r="G257" s="27"/>
+      <c r="F257" s="26"/>
+      <c r="G257" s="26"/>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F258" s="27"/>
-      <c r="G258" s="27"/>
+      <c r="F258" s="26"/>
+      <c r="G258" s="26"/>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F259" s="27"/>
-      <c r="G259" s="27"/>
+      <c r="F259" s="26"/>
+      <c r="G259" s="26"/>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F260" s="27"/>
-      <c r="G260" s="27"/>
+      <c r="F260" s="26"/>
+      <c r="G260" s="26"/>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F261" s="27"/>
-      <c r="G261" s="27"/>
+      <c r="F261" s="26"/>
+      <c r="G261" s="26"/>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F262" s="27"/>
-      <c r="G262" s="27"/>
+      <c r="F262" s="26"/>
+      <c r="G262" s="26"/>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F263" s="27"/>
-      <c r="G263" s="27"/>
+      <c r="F263" s="26"/>
+      <c r="G263" s="26"/>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F264" s="27"/>
-      <c r="G264" s="27"/>
+      <c r="F264" s="26"/>
+      <c r="G264" s="26"/>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F265" s="27"/>
-      <c r="G265" s="27"/>
+      <c r="F265" s="26"/>
+      <c r="G265" s="26"/>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F266" s="27"/>
-      <c r="G266" s="27"/>
+      <c r="F266" s="26"/>
+      <c r="G266" s="26"/>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F267" s="27"/>
-      <c r="G267" s="27"/>
+      <c r="F267" s="26"/>
+      <c r="G267" s="26"/>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F268" s="27"/>
-      <c r="G268" s="27"/>
+      <c r="F268" s="26"/>
+      <c r="G268" s="26"/>
     </row>
     <row r="269" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F269" s="27"/>
-      <c r="G269" s="27"/>
+      <c r="F269" s="26"/>
+      <c r="G269" s="26"/>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F270" s="27"/>
-      <c r="G270" s="27"/>
+      <c r="F270" s="26"/>
+      <c r="G270" s="26"/>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F271" s="27"/>
-      <c r="G271" s="27"/>
+      <c r="F271" s="26"/>
+      <c r="G271" s="26"/>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F272" s="27"/>
-      <c r="G272" s="27"/>
+      <c r="F272" s="26"/>
+      <c r="G272" s="26"/>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F273" s="27"/>
-      <c r="G273" s="27"/>
+      <c r="F273" s="26"/>
+      <c r="G273" s="26"/>
     </row>
     <row r="274" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F274" s="27"/>
-      <c r="G274" s="27"/>
+      <c r="F274" s="26"/>
+      <c r="G274" s="26"/>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F275" s="27"/>
-      <c r="G275" s="27"/>
+      <c r="F275" s="26"/>
+      <c r="G275" s="26"/>
     </row>
     <row r="276" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F276" s="27"/>
-      <c r="G276" s="27"/>
+      <c r="F276" s="26"/>
+      <c r="G276" s="26"/>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F277" s="27"/>
-      <c r="G277" s="27"/>
+      <c r="F277" s="26"/>
+      <c r="G277" s="26"/>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F278" s="27"/>
-      <c r="G278" s="27"/>
+      <c r="F278" s="26"/>
+      <c r="G278" s="26"/>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F279" s="27"/>
-      <c r="G279" s="27"/>
+      <c r="F279" s="26"/>
+      <c r="G279" s="26"/>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F280" s="27"/>
-      <c r="G280" s="27"/>
+      <c r="F280" s="26"/>
+      <c r="G280" s="26"/>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F281" s="27"/>
-      <c r="G281" s="27"/>
+      <c r="F281" s="26"/>
+      <c r="G281" s="26"/>
     </row>
     <row r="282" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F282" s="27"/>
-      <c r="G282" s="27"/>
+      <c r="F282" s="26"/>
+      <c r="G282" s="26"/>
     </row>
     <row r="283" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F283" s="27"/>
-      <c r="G283" s="27"/>
+      <c r="F283" s="26"/>
+      <c r="G283" s="26"/>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F284" s="27"/>
-      <c r="G284" s="27"/>
+      <c r="F284" s="26"/>
+      <c r="G284" s="26"/>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F285" s="27"/>
-      <c r="G285" s="27"/>
+      <c r="F285" s="26"/>
+      <c r="G285" s="26"/>
     </row>
     <row r="286" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F286" s="27"/>
-      <c r="G286" s="27"/>
+      <c r="F286" s="26"/>
+      <c r="G286" s="26"/>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F287" s="27"/>
-      <c r="G287" s="27"/>
+      <c r="F287" s="26"/>
+      <c r="G287" s="26"/>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F288" s="27"/>
-      <c r="G288" s="27"/>
+      <c r="F288" s="26"/>
+      <c r="G288" s="26"/>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F289" s="27"/>
-      <c r="G289" s="27"/>
+      <c r="F289" s="26"/>
+      <c r="G289" s="26"/>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F290" s="27"/>
-      <c r="G290" s="27"/>
+      <c r="F290" s="26"/>
+      <c r="G290" s="26"/>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F291" s="27"/>
-      <c r="G291" s="27"/>
+      <c r="F291" s="26"/>
+      <c r="G291" s="26"/>
     </row>
     <row r="292" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F292" s="27"/>
-      <c r="G292" s="27"/>
+      <c r="F292" s="26"/>
+      <c r="G292" s="26"/>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F293" s="27"/>
-      <c r="G293" s="27"/>
+      <c r="F293" s="26"/>
+      <c r="G293" s="26"/>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F294" s="27"/>
-      <c r="G294" s="27"/>
+      <c r="F294" s="26"/>
+      <c r="G294" s="26"/>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F295" s="27"/>
-      <c r="G295" s="27"/>
+      <c r="F295" s="26"/>
+      <c r="G295" s="26"/>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F296" s="27"/>
-      <c r="G296" s="27"/>
+      <c r="F296" s="26"/>
+      <c r="G296" s="26"/>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F297" s="27"/>
-      <c r="G297" s="27"/>
+      <c r="F297" s="26"/>
+      <c r="G297" s="26"/>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F298" s="27"/>
-      <c r="G298" s="27"/>
+      <c r="F298" s="26"/>
+      <c r="G298" s="26"/>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F299" s="27"/>
-      <c r="G299" s="27"/>
+      <c r="F299" s="26"/>
+      <c r="G299" s="26"/>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F300" s="27"/>
-      <c r="G300" s="27"/>
+      <c r="F300" s="26"/>
+      <c r="G300" s="26"/>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F301" s="27"/>
-      <c r="G301" s="27"/>
+      <c r="F301" s="26"/>
+      <c r="G301" s="26"/>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F302" s="27"/>
-      <c r="G302" s="27"/>
+      <c r="F302" s="26"/>
+      <c r="G302" s="26"/>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F303" s="27"/>
-      <c r="G303" s="27"/>
+      <c r="F303" s="26"/>
+      <c r="G303" s="26"/>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F304" s="27"/>
-      <c r="G304" s="27"/>
+      <c r="F304" s="26"/>
+      <c r="G304" s="26"/>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F305" s="27"/>
-      <c r="G305" s="27"/>
+      <c r="F305" s="26"/>
+      <c r="G305" s="26"/>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F306" s="27"/>
-      <c r="G306" s="27"/>
+      <c r="F306" s="26"/>
+      <c r="G306" s="26"/>
     </row>
     <row r="307" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F307" s="27"/>
-      <c r="G307" s="27"/>
+      <c r="F307" s="26"/>
+      <c r="G307" s="26"/>
     </row>
     <row r="308" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F308" s="27"/>
-      <c r="G308" s="27"/>
+      <c r="F308" s="26"/>
+      <c r="G308" s="26"/>
     </row>
     <row r="309" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F309" s="27"/>
-      <c r="G309" s="27"/>
+      <c r="F309" s="26"/>
+      <c r="G309" s="26"/>
     </row>
     <row r="310" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F310" s="27"/>
-      <c r="G310" s="27"/>
+      <c r="F310" s="26"/>
+      <c r="G310" s="26"/>
     </row>
     <row r="311" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F311" s="27"/>
-      <c r="G311" s="27"/>
+      <c r="F311" s="26"/>
+      <c r="G311" s="26"/>
     </row>
     <row r="312" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F312" s="27"/>
-      <c r="G312" s="27"/>
+      <c r="F312" s="26"/>
+      <c r="G312" s="26"/>
     </row>
     <row r="313" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F313" s="27"/>
-      <c r="G313" s="27"/>
+      <c r="F313" s="26"/>
+      <c r="G313" s="26"/>
     </row>
     <row r="314" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F314" s="27"/>
-      <c r="G314" s="27"/>
+      <c r="F314" s="26"/>
+      <c r="G314" s="26"/>
     </row>
     <row r="315" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F315" s="27"/>
-      <c r="G315" s="27"/>
+      <c r="F315" s="26"/>
+      <c r="G315" s="26"/>
     </row>
     <row r="316" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F316" s="27"/>
-      <c r="G316" s="27"/>
+      <c r="F316" s="26"/>
+      <c r="G316" s="26"/>
     </row>
     <row r="317" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F317" s="27"/>
-      <c r="G317" s="27"/>
+      <c r="F317" s="26"/>
+      <c r="G317" s="26"/>
     </row>
     <row r="318" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F318" s="27"/>
-      <c r="G318" s="27"/>
+      <c r="F318" s="26"/>
+      <c r="G318" s="26"/>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F319" s="27"/>
-      <c r="G319" s="27"/>
+      <c r="F319" s="26"/>
+      <c r="G319" s="26"/>
     </row>
     <row r="320" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F320" s="27"/>
-      <c r="G320" s="27"/>
+      <c r="F320" s="26"/>
+      <c r="G320" s="26"/>
     </row>
     <row r="321" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F321" s="27"/>
-      <c r="G321" s="27"/>
+      <c r="F321" s="26"/>
+      <c r="G321" s="26"/>
     </row>
     <row r="322" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F322" s="27"/>
-      <c r="G322" s="27"/>
+      <c r="F322" s="26"/>
+      <c r="G322" s="26"/>
     </row>
     <row r="323" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F323" s="27"/>
-      <c r="G323" s="27"/>
+      <c r="F323" s="26"/>
+      <c r="G323" s="26"/>
     </row>
     <row r="324" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F324" s="27"/>
-      <c r="G324" s="27"/>
+      <c r="F324" s="26"/>
+      <c r="G324" s="26"/>
     </row>
     <row r="325" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F325" s="27"/>
-      <c r="G325" s="27"/>
+      <c r="F325" s="26"/>
+      <c r="G325" s="26"/>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F326" s="27"/>
-      <c r="G326" s="27"/>
+      <c r="F326" s="26"/>
+      <c r="G326" s="26"/>
     </row>
     <row r="327" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F327" s="27"/>
-      <c r="G327" s="27"/>
+      <c r="F327" s="26"/>
+      <c r="G327" s="26"/>
     </row>
     <row r="328" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F328" s="27"/>
-      <c r="G328" s="27"/>
+      <c r="F328" s="26"/>
+      <c r="G328" s="26"/>
     </row>
     <row r="329" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F329" s="27"/>
-      <c r="G329" s="27"/>
+      <c r="F329" s="26"/>
+      <c r="G329" s="26"/>
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F330" s="27"/>
-      <c r="G330" s="27"/>
+      <c r="F330" s="26"/>
+      <c r="G330" s="26"/>
     </row>
     <row r="331" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F331" s="27"/>
-      <c r="G331" s="27"/>
+      <c r="F331" s="26"/>
+      <c r="G331" s="26"/>
     </row>
     <row r="332" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
+      <c r="F332" s="26"/>
+      <c r="G332" s="26"/>
     </row>
     <row r="333" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
+      <c r="F333" s="26"/>
+      <c r="G333" s="26"/>
     </row>
     <row r="334" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F334" s="27"/>
-      <c r="G334" s="27"/>
+      <c r="F334" s="26"/>
+      <c r="G334" s="26"/>
     </row>
     <row r="335" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F335" s="27"/>
-      <c r="G335" s="27"/>
+      <c r="F335" s="26"/>
+      <c r="G335" s="26"/>
     </row>
     <row r="336" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F336" s="27"/>
-      <c r="G336" s="27"/>
+      <c r="F336" s="26"/>
+      <c r="G336" s="26"/>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F337" s="27"/>
-      <c r="G337" s="27"/>
+      <c r="F337" s="26"/>
+      <c r="G337" s="26"/>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F338" s="27"/>
-      <c r="G338" s="27"/>
+      <c r="F338" s="26"/>
+      <c r="G338" s="26"/>
     </row>
     <row r="339" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F339" s="27"/>
-      <c r="G339" s="27"/>
+      <c r="F339" s="26"/>
+      <c r="G339" s="26"/>
     </row>
     <row r="340" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F340" s="27"/>
-      <c r="G340" s="27"/>
+      <c r="F340" s="26"/>
+      <c r="G340" s="26"/>
     </row>
     <row r="341" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F341" s="27"/>
-      <c r="G341" s="27"/>
+      <c r="F341" s="26"/>
+      <c r="G341" s="26"/>
     </row>
     <row r="342" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F342" s="27"/>
-      <c r="G342" s="27"/>
+      <c r="F342" s="26"/>
+      <c r="G342" s="26"/>
     </row>
     <row r="343" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F343" s="27"/>
-      <c r="G343" s="27"/>
+      <c r="F343" s="26"/>
+      <c r="G343" s="26"/>
     </row>
     <row r="344" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F344" s="27"/>
-      <c r="G344" s="27"/>
+      <c r="F344" s="26"/>
+      <c r="G344" s="26"/>
     </row>
     <row r="345" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F345" s="27"/>
-      <c r="G345" s="27"/>
+      <c r="F345" s="26"/>
+      <c r="G345" s="26"/>
     </row>
     <row r="346" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F346" s="27"/>
-      <c r="G346" s="27"/>
+      <c r="F346" s="26"/>
+      <c r="G346" s="26"/>
     </row>
     <row r="347" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F347" s="27"/>
-      <c r="G347" s="27"/>
+      <c r="F347" s="26"/>
+      <c r="G347" s="26"/>
     </row>
     <row r="348" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F348" s="27"/>
-      <c r="G348" s="27"/>
+      <c r="F348" s="26"/>
+      <c r="G348" s="26"/>
     </row>
     <row r="349" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F349" s="27"/>
-      <c r="G349" s="27"/>
+      <c r="F349" s="26"/>
+      <c r="G349" s="26"/>
     </row>
     <row r="350" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F350" s="27"/>
-      <c r="G350" s="27"/>
+      <c r="F350" s="26"/>
+      <c r="G350" s="26"/>
     </row>
     <row r="351" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F351" s="27"/>
-      <c r="G351" s="27"/>
+      <c r="F351" s="26"/>
+      <c r="G351" s="26"/>
     </row>
     <row r="352" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F352" s="27"/>
-      <c r="G352" s="27"/>
+      <c r="F352" s="26"/>
+      <c r="G352" s="26"/>
     </row>
     <row r="353" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F353" s="27"/>
-      <c r="G353" s="27"/>
+      <c r="F353" s="26"/>
+      <c r="G353" s="26"/>
     </row>
     <row r="354" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F354" s="27"/>
-      <c r="G354" s="27"/>
+      <c r="F354" s="26"/>
+      <c r="G354" s="26"/>
     </row>
     <row r="355" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F355" s="27"/>
-      <c r="G355" s="27"/>
+      <c r="F355" s="26"/>
+      <c r="G355" s="26"/>
     </row>
     <row r="356" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F356" s="27"/>
-      <c r="G356" s="27"/>
+      <c r="F356" s="26"/>
+      <c r="G356" s="26"/>
     </row>
     <row r="357" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F357" s="27"/>
-      <c r="G357" s="27"/>
+      <c r="F357" s="26"/>
+      <c r="G357" s="26"/>
     </row>
     <row r="358" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F358" s="27"/>
-      <c r="G358" s="27"/>
+      <c r="F358" s="26"/>
+      <c r="G358" s="26"/>
     </row>
     <row r="359" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F359" s="27"/>
-      <c r="G359" s="27"/>
+      <c r="F359" s="26"/>
+      <c r="G359" s="26"/>
     </row>
     <row r="360" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F360" s="27"/>
-      <c r="G360" s="27"/>
+      <c r="F360" s="26"/>
+      <c r="G360" s="26"/>
     </row>
     <row r="361" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F361" s="27"/>
-      <c r="G361" s="27"/>
+      <c r="F361" s="26"/>
+      <c r="G361" s="26"/>
     </row>
     <row r="362" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F362" s="27"/>
-      <c r="G362" s="27"/>
+      <c r="F362" s="26"/>
+      <c r="G362" s="26"/>
     </row>
     <row r="363" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F363" s="27"/>
-      <c r="G363" s="27"/>
+      <c r="F363" s="26"/>
+      <c r="G363" s="26"/>
     </row>
     <row r="364" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F364" s="27"/>
-      <c r="G364" s="27"/>
+      <c r="F364" s="26"/>
+      <c r="G364" s="26"/>
     </row>
     <row r="365" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F365" s="27"/>
-      <c r="G365" s="27"/>
+      <c r="F365" s="26"/>
+      <c r="G365" s="26"/>
     </row>
     <row r="366" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F366" s="27"/>
-      <c r="G366" s="27"/>
+      <c r="F366" s="26"/>
+      <c r="G366" s="26"/>
     </row>
     <row r="367" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F367" s="27"/>
-      <c r="G367" s="27"/>
+      <c r="F367" s="26"/>
+      <c r="G367" s="26"/>
     </row>
     <row r="368" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F368" s="27"/>
-      <c r="G368" s="27"/>
+      <c r="F368" s="26"/>
+      <c r="G368" s="26"/>
     </row>
     <row r="369" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F369" s="27"/>
-      <c r="G369" s="27"/>
+      <c r="F369" s="26"/>
+      <c r="G369" s="26"/>
     </row>
     <row r="370" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F370" s="27"/>
-      <c r="G370" s="27"/>
+      <c r="F370" s="26"/>
+      <c r="G370" s="26"/>
     </row>
     <row r="371" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F371" s="27"/>
-      <c r="G371" s="27"/>
+      <c r="F371" s="26"/>
+      <c r="G371" s="26"/>
     </row>
     <row r="372" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F372" s="27"/>
-      <c r="G372" s="27"/>
+      <c r="F372" s="26"/>
+      <c r="G372" s="26"/>
     </row>
     <row r="373" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F373" s="27"/>
-      <c r="G373" s="27"/>
+      <c r="F373" s="26"/>
+      <c r="G373" s="26"/>
     </row>
     <row r="374" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F374" s="27"/>
-      <c r="G374" s="27"/>
+      <c r="F374" s="26"/>
+      <c r="G374" s="26"/>
     </row>
     <row r="375" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F375" s="27"/>
-      <c r="G375" s="27"/>
+      <c r="F375" s="26"/>
+      <c r="G375" s="26"/>
     </row>
     <row r="376" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F376" s="27"/>
-      <c r="G376" s="27"/>
+      <c r="F376" s="26"/>
+      <c r="G376" s="26"/>
     </row>
     <row r="377" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F377" s="27"/>
-      <c r="G377" s="27"/>
+      <c r="F377" s="26"/>
+      <c r="G377" s="26"/>
     </row>
     <row r="378" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F378" s="27"/>
-      <c r="G378" s="27"/>
+      <c r="F378" s="26"/>
+      <c r="G378" s="26"/>
     </row>
     <row r="379" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F379" s="27"/>
-      <c r="G379" s="27"/>
+      <c r="F379" s="26"/>
+      <c r="G379" s="26"/>
     </row>
     <row r="380" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F380" s="27"/>
-      <c r="G380" s="27"/>
+      <c r="F380" s="26"/>
+      <c r="G380" s="26"/>
     </row>
     <row r="381" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F381" s="27"/>
-      <c r="G381" s="27"/>
+      <c r="F381" s="26"/>
+      <c r="G381" s="26"/>
     </row>
     <row r="382" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F382" s="27"/>
-      <c r="G382" s="27"/>
+      <c r="F382" s="26"/>
+      <c r="G382" s="26"/>
     </row>
     <row r="383" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F383" s="27"/>
-      <c r="G383" s="27"/>
+      <c r="F383" s="26"/>
+      <c r="G383" s="26"/>
     </row>
     <row r="384" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F384" s="27"/>
-      <c r="G384" s="27"/>
+      <c r="F384" s="26"/>
+      <c r="G384" s="26"/>
     </row>
     <row r="385" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F385" s="27"/>
-      <c r="G385" s="27"/>
+      <c r="F385" s="26"/>
+      <c r="G385" s="26"/>
     </row>
     <row r="386" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F386" s="27"/>
-      <c r="G386" s="27"/>
+      <c r="F386" s="26"/>
+      <c r="G386" s="26"/>
     </row>
     <row r="387" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F387" s="27"/>
-      <c r="G387" s="27"/>
+      <c r="F387" s="26"/>
+      <c r="G387" s="26"/>
     </row>
     <row r="388" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F388" s="27"/>
-      <c r="G388" s="27"/>
+      <c r="F388" s="26"/>
+      <c r="G388" s="26"/>
     </row>
     <row r="389" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F389" s="27"/>
-      <c r="G389" s="27"/>
+      <c r="F389" s="26"/>
+      <c r="G389" s="26"/>
     </row>
     <row r="390" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F390" s="27"/>
-      <c r="G390" s="27"/>
+      <c r="F390" s="26"/>
+      <c r="G390" s="26"/>
     </row>
     <row r="391" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F391" s="27"/>
-      <c r="G391" s="27"/>
+      <c r="F391" s="26"/>
+      <c r="G391" s="26"/>
     </row>
     <row r="392" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F392" s="27"/>
-      <c r="G392" s="27"/>
+      <c r="F392" s="26"/>
+      <c r="G392" s="26"/>
     </row>
     <row r="393" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F393" s="27"/>
-      <c r="G393" s="27"/>
+      <c r="F393" s="26"/>
+      <c r="G393" s="26"/>
     </row>
     <row r="394" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F394" s="27"/>
-      <c r="G394" s="27"/>
+      <c r="F394" s="26"/>
+      <c r="G394" s="26"/>
     </row>
     <row r="395" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F395" s="27"/>
-      <c r="G395" s="27"/>
+      <c r="F395" s="26"/>
+      <c r="G395" s="26"/>
     </row>
     <row r="396" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F396" s="27"/>
-      <c r="G396" s="27"/>
+      <c r="F396" s="26"/>
+      <c r="G396" s="26"/>
     </row>
     <row r="397" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F397" s="27"/>
-      <c r="G397" s="27"/>
+      <c r="F397" s="26"/>
+      <c r="G397" s="26"/>
     </row>
     <row r="398" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F398" s="27"/>
-      <c r="G398" s="27"/>
+      <c r="F398" s="26"/>
+      <c r="G398" s="26"/>
     </row>
     <row r="399" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F399" s="27"/>
-      <c r="G399" s="27"/>
+      <c r="F399" s="26"/>
+      <c r="G399" s="26"/>
     </row>
     <row r="400" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F400" s="27"/>
-      <c r="G400" s="27"/>
+      <c r="F400" s="26"/>
+      <c r="G400" s="26"/>
     </row>
     <row r="401" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F401" s="27"/>
-      <c r="G401" s="27"/>
+      <c r="F401" s="26"/>
+      <c r="G401" s="26"/>
     </row>
     <row r="402" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F402" s="27"/>
-      <c r="G402" s="27"/>
+      <c r="F402" s="26"/>
+      <c r="G402" s="26"/>
     </row>
     <row r="403" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F403" s="27"/>
-      <c r="G403" s="27"/>
+      <c r="F403" s="26"/>
+      <c r="G403" s="26"/>
     </row>
     <row r="404" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F404" s="27"/>
-      <c r="G404" s="27"/>
+      <c r="F404" s="26"/>
+      <c r="G404" s="26"/>
     </row>
     <row r="405" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F405" s="27"/>
-      <c r="G405" s="27"/>
+      <c r="F405" s="26"/>
+      <c r="G405" s="26"/>
     </row>
     <row r="406" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F406" s="27"/>
-      <c r="G406" s="27"/>
+      <c r="F406" s="26"/>
+      <c r="G406" s="26"/>
     </row>
     <row r="407" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F407" s="27"/>
-      <c r="G407" s="27"/>
+      <c r="F407" s="26"/>
+      <c r="G407" s="26"/>
     </row>
     <row r="408" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F408" s="27"/>
-      <c r="G408" s="27"/>
+      <c r="F408" s="26"/>
+      <c r="G408" s="26"/>
     </row>
     <row r="409" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F409" s="27"/>
-      <c r="G409" s="27"/>
+      <c r="F409" s="26"/>
+      <c r="G409" s="26"/>
     </row>
     <row r="410" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F410" s="27"/>
-      <c r="G410" s="27"/>
+      <c r="F410" s="26"/>
+      <c r="G410" s="26"/>
     </row>
     <row r="411" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F411" s="27"/>
-      <c r="G411" s="27"/>
+      <c r="F411" s="26"/>
+      <c r="G411" s="26"/>
     </row>
     <row r="412" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F412" s="27"/>
-      <c r="G412" s="27"/>
+      <c r="F412" s="26"/>
+      <c r="G412" s="26"/>
     </row>
     <row r="413" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F413" s="27"/>
-      <c r="G413" s="27"/>
+      <c r="F413" s="26"/>
+      <c r="G413" s="26"/>
     </row>
     <row r="414" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F414" s="27"/>
-      <c r="G414" s="27"/>
+      <c r="F414" s="26"/>
+      <c r="G414" s="26"/>
     </row>
     <row r="415" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F415" s="27"/>
-      <c r="G415" s="27"/>
+      <c r="F415" s="26"/>
+      <c r="G415" s="26"/>
     </row>
     <row r="416" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F416" s="27"/>
-      <c r="G416" s="27"/>
+      <c r="F416" s="26"/>
+      <c r="G416" s="26"/>
     </row>
     <row r="417" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F417" s="27"/>
-      <c r="G417" s="27"/>
+      <c r="F417" s="26"/>
+      <c r="G417" s="26"/>
     </row>
     <row r="418" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F418" s="27"/>
-      <c r="G418" s="27"/>
+      <c r="F418" s="26"/>
+      <c r="G418" s="26"/>
     </row>
     <row r="419" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F419" s="27"/>
-      <c r="G419" s="27"/>
+      <c r="F419" s="26"/>
+      <c r="G419" s="26"/>
     </row>
     <row r="420" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F420" s="27"/>
-      <c r="G420" s="27"/>
+      <c r="F420" s="26"/>
+      <c r="G420" s="26"/>
     </row>
     <row r="421" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F421" s="27"/>
-      <c r="G421" s="27"/>
+      <c r="F421" s="26"/>
+      <c r="G421" s="26"/>
     </row>
     <row r="422" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F422" s="27"/>
-      <c r="G422" s="27"/>
+      <c r="F422" s="26"/>
+      <c r="G422" s="26"/>
     </row>
     <row r="423" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F423" s="27"/>
-      <c r="G423" s="27"/>
+      <c r="F423" s="26"/>
+      <c r="G423" s="26"/>
     </row>
     <row r="424" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F424" s="27"/>
-      <c r="G424" s="27"/>
+      <c r="F424" s="26"/>
+      <c r="G424" s="26"/>
     </row>
     <row r="425" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F425" s="27"/>
-      <c r="G425" s="27"/>
+      <c r="F425" s="26"/>
+      <c r="G425" s="26"/>
     </row>
     <row r="426" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F426" s="27"/>
-      <c r="G426" s="27"/>
+      <c r="F426" s="26"/>
+      <c r="G426" s="26"/>
     </row>
     <row r="427" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F427" s="27"/>
-      <c r="G427" s="27"/>
+      <c r="F427" s="26"/>
+      <c r="G427" s="26"/>
     </row>
     <row r="428" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F428" s="27"/>
-      <c r="G428" s="27"/>
+      <c r="F428" s="26"/>
+      <c r="G428" s="26"/>
     </row>
     <row r="429" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F429" s="27"/>
-      <c r="G429" s="27"/>
+      <c r="F429" s="26"/>
+      <c r="G429" s="26"/>
     </row>
     <row r="430" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F430" s="27"/>
-      <c r="G430" s="27"/>
+      <c r="F430" s="26"/>
+      <c r="G430" s="26"/>
     </row>
     <row r="431" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F431" s="27"/>
-      <c r="G431" s="27"/>
+      <c r="F431" s="26"/>
+      <c r="G431" s="26"/>
     </row>
     <row r="432" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F432" s="27"/>
-      <c r="G432" s="27"/>
+      <c r="F432" s="26"/>
+      <c r="G432" s="26"/>
     </row>
     <row r="433" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F433" s="27"/>
-      <c r="G433" s="27"/>
+      <c r="F433" s="26"/>
+      <c r="G433" s="26"/>
     </row>
     <row r="434" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F434" s="27"/>
-      <c r="G434" s="27"/>
+      <c r="F434" s="26"/>
+      <c r="G434" s="26"/>
     </row>
     <row r="435" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F435" s="27"/>
-      <c r="G435" s="27"/>
+      <c r="F435" s="26"/>
+      <c r="G435" s="26"/>
     </row>
     <row r="436" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F436" s="27"/>
-      <c r="G436" s="27"/>
+      <c r="F436" s="26"/>
+      <c r="G436" s="26"/>
     </row>
     <row r="437" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F437" s="27"/>
-      <c r="G437" s="27"/>
+      <c r="F437" s="26"/>
+      <c r="G437" s="26"/>
     </row>
     <row r="438" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F438" s="27"/>
-      <c r="G438" s="27"/>
+      <c r="F438" s="26"/>
+      <c r="G438" s="26"/>
     </row>
     <row r="439" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F439" s="27"/>
-      <c r="G439" s="27"/>
+      <c r="F439" s="26"/>
+      <c r="G439" s="26"/>
     </row>
     <row r="440" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F440" s="27"/>
-      <c r="G440" s="27"/>
+      <c r="F440" s="26"/>
+      <c r="G440" s="26"/>
     </row>
     <row r="441" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F441" s="27"/>
-      <c r="G441" s="27"/>
+      <c r="F441" s="26"/>
+      <c r="G441" s="26"/>
     </row>
     <row r="442" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F442" s="27"/>
-      <c r="G442" s="27"/>
+      <c r="F442" s="26"/>
+      <c r="G442" s="26"/>
     </row>
     <row r="443" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F443" s="27"/>
-      <c r="G443" s="27"/>
+      <c r="F443" s="26"/>
+      <c r="G443" s="26"/>
     </row>
     <row r="444" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F444" s="27"/>
-      <c r="G444" s="27"/>
+      <c r="F444" s="26"/>
+      <c r="G444" s="26"/>
     </row>
     <row r="445" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F445" s="27"/>
-      <c r="G445" s="27"/>
+      <c r="F445" s="26"/>
+      <c r="G445" s="26"/>
     </row>
     <row r="446" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F446" s="27"/>
-      <c r="G446" s="27"/>
+      <c r="F446" s="26"/>
+      <c r="G446" s="26"/>
     </row>
     <row r="447" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F447" s="27"/>
-      <c r="G447" s="27"/>
+      <c r="F447" s="26"/>
+      <c r="G447" s="26"/>
     </row>
     <row r="448" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F448" s="27"/>
-      <c r="G448" s="27"/>
+      <c r="F448" s="26"/>
+      <c r="G448" s="26"/>
     </row>
     <row r="449" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F449" s="27"/>
-      <c r="G449" s="27"/>
+      <c r="F449" s="26"/>
+      <c r="G449" s="26"/>
     </row>
     <row r="450" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F450" s="27"/>
-      <c r="G450" s="27"/>
+      <c r="F450" s="26"/>
+      <c r="G450" s="26"/>
     </row>
     <row r="451" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F451" s="27"/>
-      <c r="G451" s="27"/>
+      <c r="F451" s="26"/>
+      <c r="G451" s="26"/>
     </row>
     <row r="452" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F452" s="27"/>
-      <c r="G452" s="27"/>
+      <c r="F452" s="26"/>
+      <c r="G452" s="26"/>
     </row>
     <row r="453" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F453" s="27"/>
-      <c r="G453" s="27"/>
+      <c r="F453" s="26"/>
+      <c r="G453" s="26"/>
     </row>
     <row r="454" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F454" s="27"/>
-      <c r="G454" s="27"/>
+      <c r="F454" s="26"/>
+      <c r="G454" s="26"/>
     </row>
     <row r="455" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F455" s="27"/>
-      <c r="G455" s="27"/>
+      <c r="F455" s="26"/>
+      <c r="G455" s="26"/>
     </row>
     <row r="456" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F456" s="27"/>
-      <c r="G456" s="27"/>
+      <c r="F456" s="26"/>
+      <c r="G456" s="26"/>
     </row>
     <row r="457" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F457" s="27"/>
-      <c r="G457" s="27"/>
+      <c r="F457" s="26"/>
+      <c r="G457" s="26"/>
     </row>
     <row r="458" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F458" s="27"/>
-      <c r="G458" s="27"/>
+      <c r="F458" s="26"/>
+      <c r="G458" s="26"/>
     </row>
     <row r="459" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F459" s="27"/>
-      <c r="G459" s="27"/>
+      <c r="F459" s="26"/>
+      <c r="G459" s="26"/>
     </row>
     <row r="460" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F460" s="27"/>
-      <c r="G460" s="27"/>
+      <c r="F460" s="26"/>
+      <c r="G460" s="26"/>
     </row>
     <row r="461" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F461" s="27"/>
-      <c r="G461" s="27"/>
+      <c r="F461" s="26"/>
+      <c r="G461" s="26"/>
     </row>
     <row r="462" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F462" s="27"/>
-      <c r="G462" s="27"/>
+      <c r="F462" s="26"/>
+      <c r="G462" s="26"/>
     </row>
     <row r="463" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F463" s="27"/>
-      <c r="G463" s="27"/>
+      <c r="F463" s="26"/>
+      <c r="G463" s="26"/>
     </row>
     <row r="464" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F464" s="27"/>
-      <c r="G464" s="27"/>
+      <c r="F464" s="26"/>
+      <c r="G464" s="26"/>
     </row>
     <row r="465" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F465" s="27"/>
-      <c r="G465" s="27"/>
+      <c r="F465" s="26"/>
+      <c r="G465" s="26"/>
     </row>
     <row r="466" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F466" s="27"/>
-      <c r="G466" s="27"/>
+      <c r="F466" s="26"/>
+      <c r="G466" s="26"/>
     </row>
     <row r="467" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F467" s="27"/>
-      <c r="G467" s="27"/>
+      <c r="F467" s="26"/>
+      <c r="G467" s="26"/>
     </row>
     <row r="468" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F468" s="27"/>
-      <c r="G468" s="27"/>
+      <c r="F468" s="26"/>
+      <c r="G468" s="26"/>
     </row>
     <row r="469" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F469" s="27"/>
-      <c r="G469" s="27"/>
+      <c r="F469" s="26"/>
+      <c r="G469" s="26"/>
     </row>
     <row r="470" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F470" s="27"/>
-      <c r="G470" s="27"/>
+      <c r="F470" s="26"/>
+      <c r="G470" s="26"/>
     </row>
     <row r="471" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F471" s="27"/>
-      <c r="G471" s="27"/>
+      <c r="F471" s="26"/>
+      <c r="G471" s="26"/>
     </row>
     <row r="472" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F472" s="27"/>
-      <c r="G472" s="27"/>
+      <c r="F472" s="26"/>
+      <c r="G472" s="26"/>
     </row>
     <row r="473" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F473" s="27"/>
-      <c r="G473" s="27"/>
+      <c r="F473" s="26"/>
+      <c r="G473" s="26"/>
     </row>
     <row r="474" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F474" s="27"/>
-      <c r="G474" s="27"/>
+      <c r="F474" s="26"/>
+      <c r="G474" s="26"/>
     </row>
     <row r="475" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F475" s="27"/>
-      <c r="G475" s="27"/>
+      <c r="F475" s="26"/>
+      <c r="G475" s="26"/>
     </row>
     <row r="476" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F476" s="27"/>
-      <c r="G476" s="27"/>
+      <c r="F476" s="26"/>
+      <c r="G476" s="26"/>
     </row>
     <row r="477" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F477" s="27"/>
-      <c r="G477" s="27"/>
+      <c r="F477" s="26"/>
+      <c r="G477" s="26"/>
     </row>
     <row r="478" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F478" s="27"/>
-      <c r="G478" s="27"/>
+      <c r="F478" s="26"/>
+      <c r="G478" s="26"/>
     </row>
     <row r="479" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F479" s="27"/>
-      <c r="G479" s="27"/>
+      <c r="F479" s="26"/>
+      <c r="G479" s="26"/>
     </row>
     <row r="480" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F480" s="27"/>
-      <c r="G480" s="27"/>
+      <c r="F480" s="26"/>
+      <c r="G480" s="26"/>
     </row>
     <row r="481" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F481" s="27"/>
-      <c r="G481" s="27"/>
+      <c r="F481" s="26"/>
+      <c r="G481" s="26"/>
     </row>
     <row r="482" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F482" s="27"/>
-      <c r="G482" s="27"/>
+      <c r="F482" s="26"/>
+      <c r="G482" s="26"/>
     </row>
     <row r="483" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F483" s="27"/>
-      <c r="G483" s="27"/>
+      <c r="F483" s="26"/>
+      <c r="G483" s="26"/>
     </row>
     <row r="484" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F484" s="27"/>
-      <c r="G484" s="27"/>
+      <c r="F484" s="26"/>
+      <c r="G484" s="26"/>
     </row>
     <row r="485" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F485" s="27"/>
-      <c r="G485" s="27"/>
+      <c r="F485" s="26"/>
+      <c r="G485" s="26"/>
     </row>
     <row r="486" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F486" s="27"/>
-      <c r="G486" s="27"/>
+      <c r="F486" s="26"/>
+      <c r="G486" s="26"/>
     </row>
     <row r="487" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F487" s="27"/>
-      <c r="G487" s="27"/>
+      <c r="F487" s="26"/>
+      <c r="G487" s="26"/>
     </row>
     <row r="488" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F488" s="27"/>
-      <c r="G488" s="27"/>
+      <c r="F488" s="26"/>
+      <c r="G488" s="26"/>
     </row>
     <row r="489" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F489" s="27"/>
-      <c r="G489" s="27"/>
+      <c r="F489" s="26"/>
+      <c r="G489" s="26"/>
     </row>
     <row r="490" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F490" s="27"/>
-      <c r="G490" s="27"/>
+      <c r="F490" s="26"/>
+      <c r="G490" s="26"/>
     </row>
     <row r="491" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F491" s="27"/>
-      <c r="G491" s="27"/>
+      <c r="F491" s="26"/>
+      <c r="G491" s="26"/>
     </row>
     <row r="492" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F492" s="27"/>
-      <c r="G492" s="27"/>
+      <c r="F492" s="26"/>
+      <c r="G492" s="26"/>
     </row>
     <row r="493" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F493" s="27"/>
-      <c r="G493" s="27"/>
+      <c r="F493" s="26"/>
+      <c r="G493" s="26"/>
     </row>
     <row r="494" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F494" s="27"/>
-      <c r="G494" s="27"/>
+      <c r="F494" s="26"/>
+      <c r="G494" s="26"/>
     </row>
     <row r="495" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F495" s="27"/>
-      <c r="G495" s="27"/>
+      <c r="F495" s="26"/>
+      <c r="G495" s="26"/>
     </row>
     <row r="496" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F496" s="27"/>
-      <c r="G496" s="27"/>
+      <c r="F496" s="26"/>
+      <c r="G496" s="26"/>
     </row>
     <row r="497" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F497" s="27"/>
-      <c r="G497" s="27"/>
+      <c r="F497" s="26"/>
+      <c r="G497" s="26"/>
     </row>
     <row r="498" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F498" s="27"/>
-      <c r="G498" s="27"/>
+      <c r="F498" s="26"/>
+      <c r="G498" s="26"/>
     </row>
     <row r="499" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F499" s="27"/>
-      <c r="G499" s="27"/>
+      <c r="F499" s="26"/>
+      <c r="G499" s="26"/>
     </row>
     <row r="500" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F500" s="27"/>
-      <c r="G500" s="27"/>
+      <c r="F500" s="26"/>
+      <c r="G500" s="26"/>
     </row>
     <row r="501" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F501" s="27"/>
-      <c r="G501" s="27"/>
+      <c r="F501" s="26"/>
+      <c r="G501" s="26"/>
     </row>
     <row r="502" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F502" s="27"/>
-      <c r="G502" s="27"/>
+      <c r="F502" s="26"/>
+      <c r="G502" s="26"/>
     </row>
     <row r="503" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F503" s="27"/>
-      <c r="G503" s="27"/>
+      <c r="F503" s="26"/>
+      <c r="G503" s="26"/>
     </row>
     <row r="504" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F504" s="27"/>
-      <c r="G504" s="27"/>
+      <c r="F504" s="26"/>
+      <c r="G504" s="26"/>
     </row>
     <row r="505" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F505" s="27"/>
-      <c r="G505" s="27"/>
+      <c r="F505" s="26"/>
+      <c r="G505" s="26"/>
     </row>
     <row r="506" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F506" s="27"/>
-      <c r="G506" s="27"/>
+      <c r="F506" s="26"/>
+      <c r="G506" s="26"/>
     </row>
     <row r="507" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F507" s="27"/>
-      <c r="G507" s="27"/>
+      <c r="F507" s="26"/>
+      <c r="G507" s="26"/>
     </row>
     <row r="508" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F508" s="27"/>
-      <c r="G508" s="27"/>
+      <c r="F508" s="26"/>
+      <c r="G508" s="26"/>
     </row>
     <row r="509" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F509" s="27"/>
-      <c r="G509" s="27"/>
+      <c r="F509" s="26"/>
+      <c r="G509" s="26"/>
     </row>
     <row r="510" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F510" s="27"/>
-      <c r="G510" s="27"/>
+      <c r="F510" s="26"/>
+      <c r="G510" s="26"/>
     </row>
     <row r="511" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F511" s="27"/>
-      <c r="G511" s="27"/>
+      <c r="F511" s="26"/>
+      <c r="G511" s="26"/>
     </row>
     <row r="512" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F512" s="27"/>
-      <c r="G512" s="27"/>
+      <c r="F512" s="26"/>
+      <c r="G512" s="26"/>
     </row>
     <row r="513" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F513" s="27"/>
-      <c r="G513" s="27"/>
+      <c r="F513" s="26"/>
+      <c r="G513" s="26"/>
     </row>
     <row r="514" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F514" s="27"/>
-      <c r="G514" s="27"/>
+      <c r="F514" s="26"/>
+      <c r="G514" s="26"/>
     </row>
     <row r="515" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F515" s="27"/>
-      <c r="G515" s="27"/>
+      <c r="F515" s="26"/>
+      <c r="G515" s="26"/>
     </row>
     <row r="516" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F516" s="27"/>
-      <c r="G516" s="27"/>
+      <c r="F516" s="26"/>
+      <c r="G516" s="26"/>
     </row>
     <row r="517" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F517" s="27"/>
-      <c r="G517" s="27"/>
+      <c r="F517" s="26"/>
+      <c r="G517" s="26"/>
     </row>
     <row r="518" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F518" s="27"/>
-      <c r="G518" s="27"/>
+      <c r="F518" s="26"/>
+      <c r="G518" s="26"/>
     </row>
     <row r="519" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F519" s="27"/>
-      <c r="G519" s="27"/>
+      <c r="F519" s="26"/>
+      <c r="G519" s="26"/>
     </row>
     <row r="520" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F520" s="27"/>
-      <c r="G520" s="27"/>
+      <c r="F520" s="26"/>
+      <c r="G520" s="26"/>
     </row>
     <row r="521" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F521" s="27"/>
-      <c r="G521" s="27"/>
+      <c r="F521" s="26"/>
+      <c r="G521" s="26"/>
     </row>
     <row r="522" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F522" s="27"/>
-      <c r="G522" s="27"/>
+      <c r="F522" s="26"/>
+      <c r="G522" s="26"/>
     </row>
     <row r="523" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F523" s="27"/>
-      <c r="G523" s="27"/>
+      <c r="F523" s="26"/>
+      <c r="G523" s="26"/>
     </row>
     <row r="524" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F524" s="27"/>
-      <c r="G524" s="27"/>
+      <c r="F524" s="26"/>
+      <c r="G524" s="26"/>
     </row>
     <row r="525" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F525" s="27"/>
-      <c r="G525" s="27"/>
+      <c r="F525" s="26"/>
+      <c r="G525" s="26"/>
     </row>
     <row r="526" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F526" s="27"/>
-      <c r="G526" s="27"/>
+      <c r="F526" s="26"/>
+      <c r="G526" s="26"/>
     </row>
     <row r="527" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F527" s="27"/>
-      <c r="G527" s="27"/>
+      <c r="F527" s="26"/>
+      <c r="G527" s="26"/>
     </row>
     <row r="528" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F528" s="27"/>
-      <c r="G528" s="27"/>
+      <c r="F528" s="26"/>
+      <c r="G528" s="26"/>
     </row>
     <row r="529" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F529" s="27"/>
-      <c r="G529" s="27"/>
+      <c r="F529" s="26"/>
+      <c r="G529" s="26"/>
     </row>
     <row r="530" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F530" s="27"/>
-      <c r="G530" s="27"/>
+      <c r="F530" s="26"/>
+      <c r="G530" s="26"/>
     </row>
     <row r="531" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F531" s="27"/>
-      <c r="G531" s="27"/>
+      <c r="F531" s="26"/>
+      <c r="G531" s="26"/>
     </row>
     <row r="532" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F532" s="27"/>
-      <c r="G532" s="27"/>
+      <c r="F532" s="26"/>
+      <c r="G532" s="26"/>
     </row>
     <row r="533" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F533" s="27"/>
-      <c r="G533" s="27"/>
+      <c r="F533" s="26"/>
+      <c r="G533" s="26"/>
     </row>
     <row r="534" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F534" s="27"/>
-      <c r="G534" s="27"/>
+      <c r="F534" s="26"/>
+      <c r="G534" s="26"/>
     </row>
     <row r="535" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F535" s="27"/>
-      <c r="G535" s="27"/>
+      <c r="F535" s="26"/>
+      <c r="G535" s="26"/>
     </row>
     <row r="536" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F536" s="27"/>
-      <c r="G536" s="27"/>
+      <c r="F536" s="26"/>
+      <c r="G536" s="26"/>
     </row>
     <row r="537" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F537" s="27"/>
-      <c r="G537" s="27"/>
+      <c r="F537" s="26"/>
+      <c r="G537" s="26"/>
     </row>
     <row r="538" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F538" s="27"/>
-      <c r="G538" s="27"/>
+      <c r="F538" s="26"/>
+      <c r="G538" s="26"/>
     </row>
     <row r="539" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F539" s="27"/>
-      <c r="G539" s="27"/>
+      <c r="F539" s="26"/>
+      <c r="G539" s="26"/>
     </row>
     <row r="540" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F540" s="27"/>
-      <c r="G540" s="27"/>
+      <c r="F540" s="26"/>
+      <c r="G540" s="26"/>
     </row>
     <row r="541" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F541" s="27"/>
-      <c r="G541" s="27"/>
+      <c r="F541" s="26"/>
+      <c r="G541" s="26"/>
     </row>
     <row r="542" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F542" s="27"/>
-      <c r="G542" s="27"/>
+      <c r="F542" s="26"/>
+      <c r="G542" s="26"/>
     </row>
     <row r="543" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F543" s="27"/>
-      <c r="G543" s="27"/>
+      <c r="F543" s="26"/>
+      <c r="G543" s="26"/>
     </row>
     <row r="544" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F544" s="27"/>
-      <c r="G544" s="27"/>
+      <c r="F544" s="26"/>
+      <c r="G544" s="26"/>
     </row>
     <row r="545" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F545" s="27"/>
-      <c r="G545" s="27"/>
+      <c r="F545" s="26"/>
+      <c r="G545" s="26"/>
     </row>
     <row r="546" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F546" s="27"/>
-      <c r="G546" s="27"/>
+      <c r="F546" s="26"/>
+      <c r="G546" s="26"/>
     </row>
     <row r="547" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F547" s="27"/>
-      <c r="G547" s="27"/>
+      <c r="F547" s="26"/>
+      <c r="G547" s="26"/>
     </row>
     <row r="548" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F548" s="27"/>
-      <c r="G548" s="27"/>
+      <c r="F548" s="26"/>
+      <c r="G548" s="26"/>
     </row>
     <row r="549" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F549" s="27"/>
-      <c r="G549" s="27"/>
+      <c r="F549" s="26"/>
+      <c r="G549" s="26"/>
     </row>
     <row r="550" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F550" s="27"/>
-      <c r="G550" s="27"/>
+      <c r="F550" s="26"/>
+      <c r="G550" s="26"/>
     </row>
     <row r="551" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F551" s="27"/>
-      <c r="G551" s="27"/>
+      <c r="F551" s="26"/>
+      <c r="G551" s="26"/>
     </row>
     <row r="552" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F552" s="27"/>
-      <c r="G552" s="27"/>
+      <c r="F552" s="26"/>
+      <c r="G552" s="26"/>
     </row>
     <row r="553" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F553" s="27"/>
-      <c r="G553" s="27"/>
+      <c r="F553" s="26"/>
+      <c r="G553" s="26"/>
     </row>
     <row r="554" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F554" s="27"/>
-      <c r="G554" s="27"/>
+      <c r="F554" s="26"/>
+      <c r="G554" s="26"/>
     </row>
     <row r="555" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F555" s="27"/>
-      <c r="G555" s="27"/>
+      <c r="F555" s="26"/>
+      <c r="G555" s="26"/>
     </row>
     <row r="556" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F556" s="27"/>
-      <c r="G556" s="27"/>
+      <c r="F556" s="26"/>
+      <c r="G556" s="26"/>
     </row>
     <row r="557" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F557" s="27"/>
-      <c r="G557" s="27"/>
+      <c r="F557" s="26"/>
+      <c r="G557" s="26"/>
     </row>
     <row r="558" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F558" s="27"/>
-      <c r="G558" s="27"/>
+      <c r="F558" s="26"/>
+      <c r="G558" s="26"/>
     </row>
     <row r="559" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F559" s="27"/>
-      <c r="G559" s="27"/>
+      <c r="F559" s="26"/>
+      <c r="G559" s="26"/>
     </row>
     <row r="560" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F560" s="27"/>
-      <c r="G560" s="27"/>
+      <c r="F560" s="26"/>
+      <c r="G560" s="26"/>
     </row>
     <row r="561" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F561" s="27"/>
-      <c r="G561" s="27"/>
+      <c r="F561" s="26"/>
+      <c r="G561" s="26"/>
     </row>
     <row r="562" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F562" s="27"/>
-      <c r="G562" s="27"/>
+      <c r="F562" s="26"/>
+      <c r="G562" s="26"/>
     </row>
     <row r="563" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F563" s="27"/>
-      <c r="G563" s="27"/>
+      <c r="F563" s="26"/>
+      <c r="G563" s="26"/>
     </row>
     <row r="564" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F564" s="27"/>
-      <c r="G564" s="27"/>
+      <c r="F564" s="26"/>
+      <c r="G564" s="26"/>
     </row>
     <row r="565" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F565" s="27"/>
-      <c r="G565" s="27"/>
+      <c r="F565" s="26"/>
+      <c r="G565" s="26"/>
     </row>
     <row r="566" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F566" s="27"/>
-      <c r="G566" s="27"/>
+      <c r="F566" s="26"/>
+      <c r="G566" s="26"/>
     </row>
     <row r="567" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F567" s="27"/>
-      <c r="G567" s="27"/>
+      <c r="F567" s="26"/>
+      <c r="G567" s="26"/>
     </row>
     <row r="568" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F568" s="27"/>
-      <c r="G568" s="27"/>
+      <c r="F568" s="26"/>
+      <c r="G568" s="26"/>
     </row>
     <row r="569" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F569" s="27"/>
-      <c r="G569" s="27"/>
+      <c r="F569" s="26"/>
+      <c r="G569" s="26"/>
     </row>
     <row r="570" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F570" s="27"/>
-      <c r="G570" s="27"/>
+      <c r="F570" s="26"/>
+      <c r="G570" s="26"/>
     </row>
     <row r="571" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F571" s="27"/>
-      <c r="G571" s="27"/>
+      <c r="F571" s="26"/>
+      <c r="G571" s="26"/>
     </row>
     <row r="572" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F572" s="27"/>
-      <c r="G572" s="27"/>
+      <c r="F572" s="26"/>
+      <c r="G572" s="26"/>
     </row>
     <row r="573" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F573" s="27"/>
-      <c r="G573" s="27"/>
+      <c r="F573" s="26"/>
+      <c r="G573" s="26"/>
     </row>
     <row r="574" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F574" s="27"/>
-      <c r="G574" s="27"/>
+      <c r="F574" s="26"/>
+      <c r="G574" s="26"/>
     </row>
     <row r="575" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F575" s="27"/>
-      <c r="G575" s="27"/>
+      <c r="F575" s="26"/>
+      <c r="G575" s="26"/>
     </row>
     <row r="576" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F576" s="27"/>
-      <c r="G576" s="27"/>
+      <c r="F576" s="26"/>
+      <c r="G576" s="26"/>
     </row>
     <row r="577" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F577" s="27"/>
-      <c r="G577" s="27"/>
+      <c r="F577" s="26"/>
+      <c r="G577" s="26"/>
     </row>
     <row r="578" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F578" s="27"/>
-      <c r="G578" s="27"/>
+      <c r="F578" s="26"/>
+      <c r="G578" s="26"/>
     </row>
     <row r="579" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F579" s="27"/>
-      <c r="G579" s="27"/>
+      <c r="F579" s="26"/>
+      <c r="G579" s="26"/>
     </row>
     <row r="580" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F580" s="27"/>
-      <c r="G580" s="27"/>
+      <c r="F580" s="26"/>
+      <c r="G580" s="26"/>
     </row>
     <row r="581" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F581" s="27"/>
-      <c r="G581" s="27"/>
+      <c r="F581" s="26"/>
+      <c r="G581" s="26"/>
     </row>
     <row r="582" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F582" s="27"/>
-      <c r="G582" s="27"/>
+      <c r="F582" s="26"/>
+      <c r="G582" s="26"/>
     </row>
     <row r="583" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F583" s="27"/>
-      <c r="G583" s="27"/>
+      <c r="F583" s="26"/>
+      <c r="G583" s="26"/>
     </row>
     <row r="584" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F584" s="27"/>
-      <c r="G584" s="27"/>
+      <c r="F584" s="26"/>
+      <c r="G584" s="26"/>
     </row>
     <row r="585" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F585" s="27"/>
-      <c r="G585" s="27"/>
+      <c r="F585" s="26"/>
+      <c r="G585" s="26"/>
     </row>
     <row r="586" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F586" s="27"/>
-      <c r="G586" s="27"/>
+      <c r="F586" s="26"/>
+      <c r="G586" s="26"/>
     </row>
     <row r="587" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F587" s="27"/>
-      <c r="G587" s="27"/>
+      <c r="F587" s="26"/>
+      <c r="G587" s="26"/>
     </row>
     <row r="588" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F588" s="27"/>
-      <c r="G588" s="27"/>
+      <c r="F588" s="26"/>
+      <c r="G588" s="26"/>
     </row>
     <row r="589" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F589" s="27"/>
-      <c r="G589" s="27"/>
+      <c r="F589" s="26"/>
+      <c r="G589" s="26"/>
     </row>
     <row r="590" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F590" s="27"/>
-      <c r="G590" s="27"/>
+      <c r="F590" s="26"/>
+      <c r="G590" s="26"/>
     </row>
     <row r="591" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F591" s="27"/>
-      <c r="G591" s="27"/>
+      <c r="F591" s="26"/>
+      <c r="G591" s="26"/>
     </row>
     <row r="592" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F592" s="27"/>
-      <c r="G592" s="27"/>
+      <c r="F592" s="26"/>
+      <c r="G592" s="26"/>
     </row>
     <row r="593" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F593" s="27"/>
-      <c r="G593" s="27"/>
+      <c r="F593" s="26"/>
+      <c r="G593" s="26"/>
     </row>
     <row r="594" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F594" s="27"/>
-      <c r="G594" s="27"/>
+      <c r="F594" s="26"/>
+      <c r="G594" s="26"/>
     </row>
     <row r="595" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F595" s="27"/>
-      <c r="G595" s="27"/>
+      <c r="F595" s="26"/>
+      <c r="G595" s="26"/>
     </row>
     <row r="596" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F596" s="27"/>
-      <c r="G596" s="27"/>
+      <c r="F596" s="26"/>
+      <c r="G596" s="26"/>
     </row>
     <row r="597" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F597" s="27"/>
-      <c r="G597" s="27"/>
+      <c r="F597" s="26"/>
+      <c r="G597" s="26"/>
     </row>
     <row r="598" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F598" s="27"/>
-      <c r="G598" s="27"/>
+      <c r="F598" s="26"/>
+      <c r="G598" s="26"/>
     </row>
     <row r="599" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F599" s="27"/>
-      <c r="G599" s="27"/>
+      <c r="F599" s="26"/>
+      <c r="G599" s="26"/>
     </row>
     <row r="600" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F600" s="27"/>
-      <c r="G600" s="27"/>
+      <c r="F600" s="26"/>
+      <c r="G600" s="26"/>
     </row>
     <row r="601" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F601" s="27"/>
-      <c r="G601" s="27"/>
+      <c r="F601" s="26"/>
+      <c r="G601" s="26"/>
     </row>
     <row r="602" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F602" s="27"/>
-      <c r="G602" s="27"/>
+      <c r="F602" s="26"/>
+      <c r="G602" s="26"/>
     </row>
     <row r="603" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F603" s="27"/>
-      <c r="G603" s="27"/>
+      <c r="F603" s="26"/>
+      <c r="G603" s="26"/>
     </row>
     <row r="604" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F604" s="27"/>
-      <c r="G604" s="27"/>
+      <c r="F604" s="26"/>
+      <c r="G604" s="26"/>
     </row>
     <row r="605" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F605" s="27"/>
-      <c r="G605" s="27"/>
+      <c r="F605" s="26"/>
+      <c r="G605" s="26"/>
     </row>
     <row r="606" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F606" s="27"/>
-      <c r="G606" s="27"/>
+      <c r="F606" s="26"/>
+      <c r="G606" s="26"/>
     </row>
     <row r="607" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F607" s="27"/>
-      <c r="G607" s="27"/>
+      <c r="F607" s="26"/>
+      <c r="G607" s="26"/>
     </row>
     <row r="608" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F608" s="27"/>
-      <c r="G608" s="27"/>
+      <c r="F608" s="26"/>
+      <c r="G608" s="26"/>
     </row>
     <row r="609" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F609" s="27"/>
-      <c r="G609" s="27"/>
+      <c r="F609" s="26"/>
+      <c r="G609" s="26"/>
     </row>
     <row r="610" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F610" s="27"/>
-      <c r="G610" s="27"/>
+      <c r="F610" s="26"/>
+      <c r="G610" s="26"/>
     </row>
     <row r="611" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F611" s="27"/>
-      <c r="G611" s="27"/>
+      <c r="F611" s="26"/>
+      <c r="G611" s="26"/>
     </row>
     <row r="612" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F612" s="27"/>
-      <c r="G612" s="27"/>
+      <c r="F612" s="26"/>
+      <c r="G612" s="26"/>
     </row>
     <row r="613" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F613" s="27"/>
-      <c r="G613" s="27"/>
+      <c r="F613" s="26"/>
+      <c r="G613" s="26"/>
     </row>
     <row r="614" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F614" s="27"/>
-      <c r="G614" s="27"/>
+      <c r="F614" s="26"/>
+      <c r="G614" s="26"/>
     </row>
     <row r="615" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F615" s="27"/>
-      <c r="G615" s="27"/>
+      <c r="F615" s="26"/>
+      <c r="G615" s="26"/>
     </row>
     <row r="616" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F616" s="27"/>
-      <c r="G616" s="27"/>
+      <c r="F616" s="26"/>
+      <c r="G616" s="26"/>
     </row>
     <row r="617" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F617" s="27"/>
-      <c r="G617" s="27"/>
+      <c r="F617" s="26"/>
+      <c r="G617" s="26"/>
     </row>
     <row r="618" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F618" s="27"/>
-      <c r="G618" s="27"/>
+      <c r="F618" s="26"/>
+      <c r="G618" s="26"/>
     </row>
     <row r="619" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F619" s="27"/>
-      <c r="G619" s="27"/>
+      <c r="F619" s="26"/>
+      <c r="G619" s="26"/>
     </row>
     <row r="620" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F620" s="27"/>
-      <c r="G620" s="27"/>
+      <c r="F620" s="26"/>
+      <c r="G620" s="26"/>
     </row>
     <row r="621" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F621" s="27"/>
-      <c r="G621" s="27"/>
+      <c r="F621" s="26"/>
+      <c r="G621" s="26"/>
     </row>
     <row r="622" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F622" s="27"/>
-      <c r="G622" s="27"/>
+      <c r="F622" s="26"/>
+      <c r="G622" s="26"/>
     </row>
     <row r="623" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F623" s="27"/>
-      <c r="G623" s="27"/>
+      <c r="F623" s="26"/>
+      <c r="G623" s="26"/>
     </row>
     <row r="624" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F624" s="27"/>
-      <c r="G624" s="27"/>
+      <c r="F624" s="26"/>
+      <c r="G624" s="26"/>
     </row>
     <row r="625" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F625" s="27"/>
-      <c r="G625" s="27"/>
+      <c r="F625" s="26"/>
+      <c r="G625" s="26"/>
     </row>
     <row r="626" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F626" s="27"/>
-      <c r="G626" s="27"/>
+      <c r="F626" s="26"/>
+      <c r="G626" s="26"/>
     </row>
     <row r="627" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F627" s="27"/>
-      <c r="G627" s="27"/>
+      <c r="F627" s="26"/>
+      <c r="G627" s="26"/>
     </row>
     <row r="628" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F628" s="27"/>
-      <c r="G628" s="27"/>
+      <c r="F628" s="26"/>
+      <c r="G628" s="26"/>
     </row>
     <row r="629" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F629" s="27"/>
-      <c r="G629" s="27"/>
+      <c r="F629" s="26"/>
+      <c r="G629" s="26"/>
     </row>
     <row r="630" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F630" s="27"/>
-      <c r="G630" s="27"/>
+      <c r="F630" s="26"/>
+      <c r="G630" s="26"/>
     </row>
     <row r="631" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F631" s="27"/>
-      <c r="G631" s="27"/>
+      <c r="F631" s="26"/>
+      <c r="G631" s="26"/>
     </row>
     <row r="632" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F632" s="27"/>
-      <c r="G632" s="27"/>
+      <c r="F632" s="26"/>
+      <c r="G632" s="26"/>
     </row>
     <row r="633" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F633" s="27"/>
-      <c r="G633" s="27"/>
+      <c r="F633" s="26"/>
+      <c r="G633" s="26"/>
     </row>
     <row r="634" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F634" s="27"/>
-      <c r="G634" s="27"/>
+      <c r="F634" s="26"/>
+      <c r="G634" s="26"/>
     </row>
     <row r="635" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F635" s="27"/>
-      <c r="G635" s="27"/>
+      <c r="F635" s="26"/>
+      <c r="G635" s="26"/>
     </row>
     <row r="636" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F636" s="27"/>
-      <c r="G636" s="27"/>
+      <c r="F636" s="26"/>
+      <c r="G636" s="26"/>
     </row>
     <row r="637" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F637" s="27"/>
-      <c r="G637" s="27"/>
+      <c r="F637" s="26"/>
+      <c r="G637" s="26"/>
     </row>
     <row r="638" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F638" s="27"/>
-      <c r="G638" s="27"/>
+      <c r="F638" s="26"/>
+      <c r="G638" s="26"/>
     </row>
     <row r="639" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F639" s="27"/>
-      <c r="G639" s="27"/>
+      <c r="F639" s="26"/>
+      <c r="G639" s="26"/>
     </row>
     <row r="640" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F640" s="27"/>
-      <c r="G640" s="27"/>
+      <c r="F640" s="26"/>
+      <c r="G640" s="26"/>
     </row>
     <row r="641" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F641" s="27"/>
-      <c r="G641" s="27"/>
+      <c r="F641" s="26"/>
+      <c r="G641" s="26"/>
     </row>
     <row r="642" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F642" s="27"/>
-      <c r="G642" s="27"/>
+      <c r="F642" s="26"/>
+      <c r="G642" s="26"/>
     </row>
     <row r="643" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F643" s="27"/>
-      <c r="G643" s="27"/>
+      <c r="F643" s="26"/>
+      <c r="G643" s="26"/>
     </row>
     <row r="644" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F644" s="27"/>
-      <c r="G644" s="27"/>
+      <c r="F644" s="26"/>
+      <c r="G644" s="26"/>
     </row>
     <row r="645" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F645" s="27"/>
-      <c r="G645" s="27"/>
+      <c r="F645" s="26"/>
+      <c r="G645" s="26"/>
     </row>
     <row r="646" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F646" s="27"/>
-      <c r="G646" s="27"/>
+      <c r="F646" s="26"/>
+      <c r="G646" s="26"/>
     </row>
     <row r="647" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F647" s="27"/>
-      <c r="G647" s="27"/>
+      <c r="F647" s="26"/>
+      <c r="G647" s="26"/>
     </row>
     <row r="648" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F648" s="27"/>
-      <c r="G648" s="27"/>
+      <c r="F648" s="26"/>
+      <c r="G648" s="26"/>
     </row>
     <row r="649" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F649" s="27"/>
-      <c r="G649" s="27"/>
+      <c r="F649" s="26"/>
+      <c r="G649" s="26"/>
     </row>
     <row r="650" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F650" s="27"/>
-      <c r="G650" s="27"/>
+      <c r="F650" s="26"/>
+      <c r="G650" s="26"/>
     </row>
     <row r="651" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F651" s="27"/>
-      <c r="G651" s="27"/>
+      <c r="F651" s="26"/>
+      <c r="G651" s="26"/>
     </row>
     <row r="652" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F652" s="27"/>
-      <c r="G652" s="27"/>
+      <c r="F652" s="26"/>
+      <c r="G652" s="26"/>
     </row>
     <row r="653" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F653" s="27"/>
-      <c r="G653" s="27"/>
+      <c r="F653" s="26"/>
+      <c r="G653" s="26"/>
     </row>
     <row r="654" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F654" s="27"/>
-      <c r="G654" s="27"/>
+      <c r="F654" s="26"/>
+      <c r="G654" s="26"/>
     </row>
     <row r="655" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F655" s="27"/>
-      <c r="G655" s="27"/>
+      <c r="F655" s="26"/>
+      <c r="G655" s="26"/>
     </row>
     <row r="656" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F656" s="27"/>
-      <c r="G656" s="27"/>
+      <c r="F656" s="26"/>
+      <c r="G656" s="26"/>
     </row>
     <row r="657" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F657" s="27"/>
-      <c r="G657" s="27"/>
+      <c r="F657" s="26"/>
+      <c r="G657" s="26"/>
     </row>
     <row r="658" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F658" s="27"/>
-      <c r="G658" s="27"/>
+      <c r="F658" s="26"/>
+      <c r="G658" s="26"/>
     </row>
     <row r="659" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F659" s="27"/>
-      <c r="G659" s="27"/>
+      <c r="F659" s="26"/>
+      <c r="G659" s="26"/>
     </row>
     <row r="660" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F660" s="27"/>
-      <c r="G660" s="27"/>
+      <c r="F660" s="26"/>
+      <c r="G660" s="26"/>
     </row>
     <row r="661" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F661" s="27"/>
-      <c r="G661" s="27"/>
+      <c r="F661" s="26"/>
+      <c r="G661" s="26"/>
     </row>
     <row r="662" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F662" s="27"/>
-      <c r="G662" s="27"/>
+      <c r="F662" s="26"/>
+      <c r="G662" s="26"/>
     </row>
     <row r="663" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F663" s="27"/>
-      <c r="G663" s="27"/>
+      <c r="F663" s="26"/>
+      <c r="G663" s="26"/>
     </row>
     <row r="664" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F664" s="27"/>
-      <c r="G664" s="27"/>
+      <c r="F664" s="26"/>
+      <c r="G664" s="26"/>
     </row>
     <row r="665" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F665" s="27"/>
-      <c r="G665" s="27"/>
+      <c r="F665" s="26"/>
+      <c r="G665" s="26"/>
     </row>
     <row r="666" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F666" s="27"/>
-      <c r="G666" s="27"/>
+      <c r="F666" s="26"/>
+      <c r="G666" s="26"/>
     </row>
     <row r="667" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F667" s="27"/>
-      <c r="G667" s="27"/>
+      <c r="F667" s="26"/>
+      <c r="G667" s="26"/>
     </row>
     <row r="668" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F668" s="27"/>
-      <c r="G668" s="27"/>
+      <c r="F668" s="26"/>
+      <c r="G668" s="26"/>
     </row>
     <row r="669" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F669" s="27"/>
-      <c r="G669" s="27"/>
+      <c r="F669" s="26"/>
+      <c r="G669" s="26"/>
     </row>
     <row r="670" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F670" s="27"/>
-      <c r="G670" s="27"/>
+      <c r="F670" s="26"/>
+      <c r="G670" s="26"/>
     </row>
     <row r="671" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F671" s="27"/>
-      <c r="G671" s="27"/>
+      <c r="F671" s="26"/>
+      <c r="G671" s="26"/>
     </row>
     <row r="672" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F672" s="27"/>
-      <c r="G672" s="27"/>
+      <c r="F672" s="26"/>
+      <c r="G672" s="26"/>
     </row>
     <row r="673" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F673" s="27"/>
-      <c r="G673" s="27"/>
+      <c r="F673" s="26"/>
+      <c r="G673" s="26"/>
     </row>
     <row r="674" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F674" s="27"/>
-      <c r="G674" s="27"/>
+      <c r="F674" s="26"/>
+      <c r="G674" s="26"/>
     </row>
     <row r="675" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F675" s="27"/>
-      <c r="G675" s="27"/>
+      <c r="F675" s="26"/>
+      <c r="G675" s="26"/>
     </row>
     <row r="676" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F676" s="27"/>
-      <c r="G676" s="27"/>
+      <c r="F676" s="26"/>
+      <c r="G676" s="26"/>
     </row>
     <row r="677" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F677" s="27"/>
-      <c r="G677" s="27"/>
+      <c r="F677" s="26"/>
+      <c r="G677" s="26"/>
     </row>
     <row r="678" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F678" s="27"/>
-      <c r="G678" s="27"/>
+      <c r="F678" s="26"/>
+      <c r="G678" s="26"/>
     </row>
     <row r="679" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F679" s="27"/>
-      <c r="G679" s="27"/>
+      <c r="F679" s="26"/>
+      <c r="G679" s="26"/>
     </row>
     <row r="680" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F680" s="27"/>
-      <c r="G680" s="27"/>
+      <c r="F680" s="26"/>
+      <c r="G680" s="26"/>
     </row>
     <row r="681" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F681" s="27"/>
-      <c r="G681" s="27"/>
+      <c r="F681" s="26"/>
+      <c r="G681" s="26"/>
     </row>
     <row r="682" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F682" s="27"/>
-      <c r="G682" s="27"/>
+      <c r="F682" s="26"/>
+      <c r="G682" s="26"/>
     </row>
     <row r="683" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F683" s="27"/>
-      <c r="G683" s="27"/>
+      <c r="F683" s="26"/>
+      <c r="G683" s="26"/>
     </row>
     <row r="684" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F684" s="27"/>
-      <c r="G684" s="27"/>
+      <c r="F684" s="26"/>
+      <c r="G684" s="26"/>
     </row>
     <row r="685" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F685" s="27"/>
-      <c r="G685" s="27"/>
+      <c r="F685" s="26"/>
+      <c r="G685" s="26"/>
     </row>
     <row r="686" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F686" s="27"/>
-      <c r="G686" s="27"/>
+      <c r="F686" s="26"/>
+      <c r="G686" s="26"/>
     </row>
     <row r="687" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F687" s="27"/>
-      <c r="G687" s="27"/>
+      <c r="F687" s="26"/>
+      <c r="G687" s="26"/>
     </row>
     <row r="688" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F688" s="27"/>
-      <c r="G688" s="27"/>
+      <c r="F688" s="26"/>
+      <c r="G688" s="26"/>
     </row>
     <row r="689" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F689" s="27"/>
-      <c r="G689" s="27"/>
+      <c r="F689" s="26"/>
+      <c r="G689" s="26"/>
     </row>
     <row r="690" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F690" s="27"/>
-      <c r="G690" s="27"/>
+      <c r="F690" s="26"/>
+      <c r="G690" s="26"/>
     </row>
     <row r="691" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F691" s="27"/>
-      <c r="G691" s="27"/>
+      <c r="F691" s="26"/>
+      <c r="G691" s="26"/>
     </row>
     <row r="692" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F692" s="27"/>
-      <c r="G692" s="27"/>
+      <c r="F692" s="26"/>
+      <c r="G692" s="26"/>
     </row>
     <row r="693" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F693" s="27"/>
-      <c r="G693" s="27"/>
+      <c r="F693" s="26"/>
+      <c r="G693" s="26"/>
     </row>
     <row r="694" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F694" s="27"/>
-      <c r="G694" s="27"/>
+      <c r="F694" s="26"/>
+      <c r="G694" s="26"/>
     </row>
     <row r="695" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F695" s="27"/>
-      <c r="G695" s="27"/>
+      <c r="F695" s="26"/>
+      <c r="G695" s="26"/>
     </row>
     <row r="696" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F696" s="27"/>
-      <c r="G696" s="27"/>
+      <c r="F696" s="26"/>
+      <c r="G696" s="26"/>
     </row>
     <row r="697" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F697" s="27"/>
-      <c r="G697" s="27"/>
+      <c r="F697" s="26"/>
+      <c r="G697" s="26"/>
     </row>
     <row r="698" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F698" s="27"/>
-      <c r="G698" s="27"/>
+      <c r="F698" s="26"/>
+      <c r="G698" s="26"/>
     </row>
     <row r="699" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F699" s="27"/>
-      <c r="G699" s="27"/>
+      <c r="F699" s="26"/>
+      <c r="G699" s="26"/>
     </row>
     <row r="700" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F700" s="27"/>
-      <c r="G700" s="27"/>
+      <c r="F700" s="26"/>
+      <c r="G700" s="26"/>
     </row>
     <row r="701" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F701" s="27"/>
-      <c r="G701" s="27"/>
+      <c r="F701" s="26"/>
+      <c r="G701" s="26"/>
     </row>
     <row r="702" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F702" s="27"/>
-      <c r="G702" s="27"/>
+      <c r="F702" s="26"/>
+      <c r="G702" s="26"/>
     </row>
     <row r="703" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F703" s="27"/>
-      <c r="G703" s="27"/>
+      <c r="F703" s="26"/>
+      <c r="G703" s="26"/>
     </row>
     <row r="704" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F704" s="27"/>
-      <c r="G704" s="27"/>
+      <c r="F704" s="26"/>
+      <c r="G704" s="26"/>
     </row>
     <row r="705" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F705" s="27"/>
-      <c r="G705" s="27"/>
+      <c r="F705" s="26"/>
+      <c r="G705" s="26"/>
     </row>
     <row r="706" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F706" s="27"/>
-      <c r="G706" s="27"/>
+      <c r="F706" s="26"/>
+      <c r="G706" s="26"/>
     </row>
     <row r="707" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F707" s="27"/>
-      <c r="G707" s="27"/>
+      <c r="F707" s="26"/>
+      <c r="G707" s="26"/>
     </row>
     <row r="708" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F708" s="27"/>
-      <c r="G708" s="27"/>
+      <c r="F708" s="26"/>
+      <c r="G708" s="26"/>
     </row>
     <row r="709" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F709" s="27"/>
-      <c r="G709" s="27"/>
+      <c r="F709" s="26"/>
+      <c r="G709" s="26"/>
     </row>
     <row r="710" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F710" s="27"/>
-      <c r="G710" s="27"/>
+      <c r="F710" s="26"/>
+      <c r="G710" s="26"/>
     </row>
     <row r="711" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F711" s="27"/>
-      <c r="G711" s="27"/>
+      <c r="F711" s="26"/>
+      <c r="G711" s="26"/>
     </row>
     <row r="712" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F712" s="27"/>
-      <c r="G712" s="27"/>
+      <c r="F712" s="26"/>
+      <c r="G712" s="26"/>
     </row>
     <row r="713" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F713" s="27"/>
-      <c r="G713" s="27"/>
+      <c r="F713" s="26"/>
+      <c r="G713" s="26"/>
     </row>
     <row r="714" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F714" s="27"/>
-      <c r="G714" s="27"/>
+      <c r="F714" s="26"/>
+      <c r="G714" s="26"/>
     </row>
     <row r="715" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F715" s="27"/>
-      <c r="G715" s="27"/>
+      <c r="F715" s="26"/>
+      <c r="G715" s="26"/>
     </row>
     <row r="716" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F716" s="27"/>
-      <c r="G716" s="27"/>
+      <c r="F716" s="26"/>
+      <c r="G716" s="26"/>
     </row>
     <row r="717" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F717" s="27"/>
-      <c r="G717" s="27"/>
+      <c r="F717" s="26"/>
+      <c r="G717" s="26"/>
     </row>
     <row r="718" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F718" s="27"/>
-      <c r="G718" s="27"/>
+      <c r="F718" s="26"/>
+      <c r="G718" s="26"/>
     </row>
     <row r="719" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F719" s="27"/>
-      <c r="G719" s="27"/>
+      <c r="F719" s="26"/>
+      <c r="G719" s="26"/>
     </row>
     <row r="720" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F720" s="27"/>
-      <c r="G720" s="27"/>
+      <c r="F720" s="26"/>
+      <c r="G720" s="26"/>
     </row>
     <row r="721" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F721" s="27"/>
-      <c r="G721" s="27"/>
+      <c r="F721" s="26"/>
+      <c r="G721" s="26"/>
     </row>
     <row r="722" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F722" s="27"/>
-      <c r="G722" s="27"/>
+      <c r="F722" s="26"/>
+      <c r="G722" s="26"/>
     </row>
     <row r="723" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F723" s="27"/>
-      <c r="G723" s="27"/>
+      <c r="F723" s="26"/>
+      <c r="G723" s="26"/>
     </row>
     <row r="724" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F724" s="27"/>
-      <c r="G724" s="27"/>
+      <c r="F724" s="26"/>
+      <c r="G724" s="26"/>
     </row>
     <row r="725" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F725" s="27"/>
-      <c r="G725" s="27"/>
+      <c r="F725" s="26"/>
+      <c r="G725" s="26"/>
     </row>
     <row r="726" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F726" s="27"/>
-      <c r="G726" s="27"/>
+      <c r="F726" s="26"/>
+      <c r="G726" s="26"/>
     </row>
     <row r="727" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F727" s="27"/>
-      <c r="G727" s="27"/>
+      <c r="F727" s="26"/>
+      <c r="G727" s="26"/>
     </row>
     <row r="728" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F728" s="27"/>
-      <c r="G728" s="27"/>
+      <c r="F728" s="26"/>
+      <c r="G728" s="26"/>
     </row>
     <row r="729" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F729" s="27"/>
-      <c r="G729" s="27"/>
+      <c r="F729" s="26"/>
+      <c r="G729" s="26"/>
     </row>
     <row r="730" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F730" s="27"/>
-      <c r="G730" s="27"/>
+      <c r="F730" s="26"/>
+      <c r="G730" s="26"/>
     </row>
     <row r="731" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F731" s="27"/>
-      <c r="G731" s="27"/>
+      <c r="F731" s="26"/>
+      <c r="G731" s="26"/>
     </row>
     <row r="732" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F732" s="27"/>
-      <c r="G732" s="27"/>
+      <c r="F732" s="26"/>
+      <c r="G732" s="26"/>
     </row>
     <row r="733" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F733" s="27"/>
-      <c r="G733" s="27"/>
+      <c r="F733" s="26"/>
+      <c r="G733" s="26"/>
     </row>
     <row r="734" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F734" s="27"/>
-      <c r="G734" s="27"/>
+      <c r="F734" s="26"/>
+      <c r="G734" s="26"/>
     </row>
     <row r="735" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F735" s="27"/>
-      <c r="G735" s="27"/>
+      <c r="F735" s="26"/>
+      <c r="G735" s="26"/>
     </row>
     <row r="736" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F736" s="27"/>
-      <c r="G736" s="27"/>
+      <c r="F736" s="26"/>
+      <c r="G736" s="26"/>
     </row>
     <row r="737" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F737" s="27"/>
-      <c r="G737" s="27"/>
+      <c r="F737" s="26"/>
+      <c r="G737" s="26"/>
     </row>
     <row r="738" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F738" s="27"/>
-      <c r="G738" s="27"/>
+      <c r="F738" s="26"/>
+      <c r="G738" s="26"/>
     </row>
     <row r="739" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F739" s="27"/>
-      <c r="G739" s="27"/>
+      <c r="F739" s="26"/>
+      <c r="G739" s="26"/>
     </row>
     <row r="740" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F740" s="27"/>
-      <c r="G740" s="27"/>
+      <c r="F740" s="26"/>
+      <c r="G740" s="26"/>
     </row>
     <row r="741" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F741" s="27"/>
-      <c r="G741" s="27"/>
+      <c r="F741" s="26"/>
+      <c r="G741" s="26"/>
     </row>
     <row r="742" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F742" s="27"/>
-      <c r="G742" s="27"/>
+      <c r="F742" s="26"/>
+      <c r="G742" s="26"/>
     </row>
     <row r="743" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F743" s="27"/>
-      <c r="G743" s="27"/>
+      <c r="F743" s="26"/>
+      <c r="G743" s="26"/>
     </row>
     <row r="744" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F744" s="27"/>
-      <c r="G744" s="27"/>
+      <c r="F744" s="26"/>
+      <c r="G744" s="26"/>
     </row>
     <row r="745" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F745" s="27"/>
-      <c r="G745" s="27"/>
+      <c r="F745" s="26"/>
+      <c r="G745" s="26"/>
     </row>
     <row r="746" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F746" s="27"/>
-      <c r="G746" s="27"/>
+      <c r="F746" s="26"/>
+      <c r="G746" s="26"/>
     </row>
     <row r="747" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F747" s="27"/>
-      <c r="G747" s="27"/>
+      <c r="F747" s="26"/>
+      <c r="G747" s="26"/>
     </row>
     <row r="748" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F748" s="27"/>
-      <c r="G748" s="27"/>
+      <c r="F748" s="26"/>
+      <c r="G748" s="26"/>
     </row>
     <row r="749" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F749" s="27"/>
-      <c r="G749" s="27"/>
+      <c r="F749" s="26"/>
+      <c r="G749" s="26"/>
     </row>
     <row r="750" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F750" s="27"/>
-      <c r="G750" s="27"/>
+      <c r="F750" s="26"/>
+      <c r="G750" s="26"/>
     </row>
     <row r="751" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F751" s="27"/>
-      <c r="G751" s="27"/>
+      <c r="F751" s="26"/>
+      <c r="G751" s="26"/>
     </row>
     <row r="752" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F752" s="27"/>
-      <c r="G752" s="27"/>
+      <c r="F752" s="26"/>
+      <c r="G752" s="26"/>
     </row>
     <row r="753" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F753" s="27"/>
-      <c r="G753" s="27"/>
+      <c r="F753" s="26"/>
+      <c r="G753" s="26"/>
     </row>
     <row r="754" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F754" s="27"/>
-      <c r="G754" s="27"/>
+      <c r="F754" s="26"/>
+      <c r="G754" s="26"/>
     </row>
     <row r="755" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F755" s="27"/>
-      <c r="G755" s="27"/>
+      <c r="F755" s="26"/>
+      <c r="G755" s="26"/>
     </row>
     <row r="756" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F756" s="27"/>
-      <c r="G756" s="27"/>
+      <c r="F756" s="26"/>
+      <c r="G756" s="26"/>
     </row>
     <row r="757" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F757" s="27"/>
-      <c r="G757" s="27"/>
+      <c r="F757" s="26"/>
+      <c r="G757" s="26"/>
     </row>
     <row r="758" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F758" s="27"/>
-      <c r="G758" s="27"/>
+      <c r="F758" s="26"/>
+      <c r="G758" s="26"/>
     </row>
     <row r="759" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F759" s="27"/>
-      <c r="G759" s="27"/>
+      <c r="F759" s="26"/>
+      <c r="G759" s="26"/>
     </row>
     <row r="760" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F760" s="27"/>
-      <c r="G760" s="27"/>
+      <c r="F760" s="26"/>
+      <c r="G760" s="26"/>
     </row>
     <row r="761" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F761" s="27"/>
-      <c r="G761" s="27"/>
+      <c r="F761" s="26"/>
+      <c r="G761" s="26"/>
     </row>
     <row r="762" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F762" s="27"/>
-      <c r="G762" s="27"/>
+      <c r="F762" s="26"/>
+      <c r="G762" s="26"/>
     </row>
     <row r="763" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F763" s="27"/>
-      <c r="G763" s="27"/>
+      <c r="F763" s="26"/>
+      <c r="G763" s="26"/>
     </row>
     <row r="764" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F764" s="27"/>
-      <c r="G764" s="27"/>
+      <c r="F764" s="26"/>
+      <c r="G764" s="26"/>
     </row>
     <row r="765" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F765" s="27"/>
-      <c r="G765" s="27"/>
+      <c r="F765" s="26"/>
+      <c r="G765" s="26"/>
     </row>
     <row r="766" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F766" s="27"/>
-      <c r="G766" s="27"/>
+      <c r="F766" s="26"/>
+      <c r="G766" s="26"/>
     </row>
     <row r="767" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F767" s="27"/>
-      <c r="G767" s="27"/>
+      <c r="F767" s="26"/>
+      <c r="G767" s="26"/>
     </row>
     <row r="768" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F768" s="27"/>
-      <c r="G768" s="27"/>
+      <c r="F768" s="26"/>
+      <c r="G768" s="26"/>
     </row>
     <row r="769" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F769" s="27"/>
-      <c r="G769" s="27"/>
+      <c r="F769" s="26"/>
+      <c r="G769" s="26"/>
     </row>
     <row r="770" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F770" s="27"/>
-      <c r="G770" s="27"/>
+      <c r="F770" s="26"/>
+      <c r="G770" s="26"/>
     </row>
     <row r="771" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F771" s="27"/>
-      <c r="G771" s="27"/>
+      <c r="F771" s="26"/>
+      <c r="G771" s="26"/>
     </row>
     <row r="772" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F772" s="27"/>
-      <c r="G772" s="27"/>
+      <c r="F772" s="26"/>
+      <c r="G772" s="26"/>
     </row>
     <row r="773" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F773" s="27"/>
-      <c r="G773" s="27"/>
+      <c r="F773" s="26"/>
+      <c r="G773" s="26"/>
     </row>
     <row r="774" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F774" s="27"/>
-      <c r="G774" s="27"/>
+      <c r="F774" s="26"/>
+      <c r="G774" s="26"/>
     </row>
     <row r="775" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F775" s="27"/>
-      <c r="G775" s="27"/>
+      <c r="F775" s="26"/>
+      <c r="G775" s="26"/>
     </row>
     <row r="776" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F776" s="27"/>
-      <c r="G776" s="27"/>
+      <c r="F776" s="26"/>
+      <c r="G776" s="26"/>
     </row>
     <row r="777" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F777" s="27"/>
-      <c r="G777" s="27"/>
+      <c r="F777" s="26"/>
+      <c r="G777" s="26"/>
     </row>
     <row r="778" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F778" s="27"/>
-      <c r="G778" s="27"/>
+      <c r="F778" s="26"/>
+      <c r="G778" s="26"/>
     </row>
     <row r="779" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F779" s="27"/>
-      <c r="G779" s="27"/>
+      <c r="F779" s="26"/>
+      <c r="G779" s="26"/>
     </row>
     <row r="780" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F780" s="27"/>
-      <c r="G780" s="27"/>
+      <c r="F780" s="26"/>
+      <c r="G780" s="26"/>
     </row>
     <row r="781" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F781" s="27"/>
-      <c r="G781" s="27"/>
+      <c r="F781" s="26"/>
+      <c r="G781" s="26"/>
     </row>
     <row r="782" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F782" s="27"/>
-      <c r="G782" s="27"/>
+      <c r="F782" s="26"/>
+      <c r="G782" s="26"/>
     </row>
     <row r="783" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F783" s="27"/>
-      <c r="G783" s="27"/>
+      <c r="F783" s="26"/>
+      <c r="G783" s="26"/>
     </row>
     <row r="784" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F784" s="27"/>
-      <c r="G784" s="27"/>
+      <c r="F784" s="26"/>
+      <c r="G784" s="26"/>
     </row>
     <row r="785" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F785" s="27"/>
-      <c r="G785" s="27"/>
+      <c r="F785" s="26"/>
+      <c r="G785" s="26"/>
     </row>
     <row r="786" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F786" s="27"/>
-      <c r="G786" s="27"/>
+      <c r="F786" s="26"/>
+      <c r="G786" s="26"/>
     </row>
     <row r="787" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F787" s="27"/>
-      <c r="G787" s="27"/>
+      <c r="F787" s="26"/>
+      <c r="G787" s="26"/>
     </row>
     <row r="788" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F788" s="27"/>
-      <c r="G788" s="27"/>
+      <c r="F788" s="26"/>
+      <c r="G788" s="26"/>
     </row>
     <row r="789" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F789" s="27"/>
-      <c r="G789" s="27"/>
+      <c r="F789" s="26"/>
+      <c r="G789" s="26"/>
     </row>
     <row r="790" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F790" s="27"/>
-      <c r="G790" s="27"/>
+      <c r="F790" s="26"/>
+      <c r="G790" s="26"/>
     </row>
     <row r="791" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F791" s="27"/>
-      <c r="G791" s="27"/>
+      <c r="F791" s="26"/>
+      <c r="G791" s="26"/>
     </row>
     <row r="792" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F792" s="27"/>
-      <c r="G792" s="27"/>
+      <c r="F792" s="26"/>
+      <c r="G792" s="26"/>
     </row>
     <row r="793" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F793" s="27"/>
-      <c r="G793" s="27"/>
+      <c r="F793" s="26"/>
+      <c r="G793" s="26"/>
     </row>
     <row r="794" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F794" s="27"/>
-      <c r="G794" s="27"/>
+      <c r="F794" s="26"/>
+      <c r="G794" s="26"/>
     </row>
     <row r="795" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F795" s="27"/>
-      <c r="G795" s="27"/>
+      <c r="F795" s="26"/>
+      <c r="G795" s="26"/>
     </row>
     <row r="796" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F796" s="27"/>
-      <c r="G796" s="27"/>
+      <c r="F796" s="26"/>
+      <c r="G796" s="26"/>
     </row>
     <row r="797" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F797" s="27"/>
-      <c r="G797" s="27"/>
+      <c r="F797" s="26"/>
+      <c r="G797" s="26"/>
     </row>
     <row r="798" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F798" s="27"/>
-      <c r="G798" s="27"/>
+      <c r="F798" s="26"/>
+      <c r="G798" s="26"/>
     </row>
     <row r="799" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F799" s="27"/>
-      <c r="G799" s="27"/>
+      <c r="F799" s="26"/>
+      <c r="G799" s="26"/>
     </row>
     <row r="800" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F800" s="27"/>
-      <c r="G800" s="27"/>
+      <c r="F800" s="26"/>
+      <c r="G800" s="26"/>
     </row>
     <row r="801" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F801" s="27"/>
-      <c r="G801" s="27"/>
+      <c r="F801" s="26"/>
+      <c r="G801" s="26"/>
     </row>
     <row r="802" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F802" s="27"/>
-      <c r="G802" s="27"/>
+      <c r="F802" s="26"/>
+      <c r="G802" s="26"/>
     </row>
     <row r="803" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F803" s="27"/>
-      <c r="G803" s="27"/>
+      <c r="F803" s="26"/>
+      <c r="G803" s="26"/>
     </row>
     <row r="804" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F804" s="27"/>
-      <c r="G804" s="27"/>
+      <c r="F804" s="26"/>
+      <c r="G804" s="26"/>
     </row>
     <row r="805" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F805" s="27"/>
-      <c r="G805" s="27"/>
+      <c r="F805" s="26"/>
+      <c r="G805" s="26"/>
     </row>
     <row r="806" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F806" s="27"/>
-      <c r="G806" s="27"/>
+      <c r="F806" s="26"/>
+      <c r="G806" s="26"/>
     </row>
     <row r="807" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F807" s="27"/>
-      <c r="G807" s="27"/>
+      <c r="F807" s="26"/>
+      <c r="G807" s="26"/>
     </row>
     <row r="808" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F808" s="27"/>
-      <c r="G808" s="27"/>
+      <c r="F808" s="26"/>
+      <c r="G808" s="26"/>
     </row>
     <row r="809" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F809" s="27"/>
-      <c r="G809" s="27"/>
+      <c r="F809" s="26"/>
+      <c r="G809" s="26"/>
     </row>
     <row r="810" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F810" s="27"/>
-      <c r="G810" s="27"/>
+      <c r="F810" s="26"/>
+      <c r="G810" s="26"/>
     </row>
     <row r="811" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F811" s="27"/>
-      <c r="G811" s="27"/>
+      <c r="F811" s="26"/>
+      <c r="G811" s="26"/>
     </row>
     <row r="812" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F812" s="27"/>
-      <c r="G812" s="27"/>
+      <c r="F812" s="26"/>
+      <c r="G812" s="26"/>
     </row>
     <row r="813" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F813" s="27"/>
-      <c r="G813" s="27"/>
+      <c r="F813" s="26"/>
+      <c r="G813" s="26"/>
     </row>
     <row r="814" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F814" s="27"/>
-      <c r="G814" s="27"/>
+      <c r="F814" s="26"/>
+      <c r="G814" s="26"/>
     </row>
     <row r="815" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F815" s="27"/>
-      <c r="G815" s="27"/>
+      <c r="F815" s="26"/>
+      <c r="G815" s="26"/>
     </row>
     <row r="816" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F816" s="27"/>
-      <c r="G816" s="27"/>
+      <c r="F816" s="26"/>
+      <c r="G816" s="26"/>
     </row>
     <row r="817" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F817" s="27"/>
-      <c r="G817" s="27"/>
+      <c r="F817" s="26"/>
+      <c r="G817" s="26"/>
     </row>
     <row r="818" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F818" s="27"/>
-      <c r="G818" s="27"/>
+      <c r="F818" s="26"/>
+      <c r="G818" s="26"/>
     </row>
     <row r="819" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F819" s="27"/>
-      <c r="G819" s="27"/>
+      <c r="F819" s="26"/>
+      <c r="G819" s="26"/>
     </row>
     <row r="820" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F820" s="27"/>
-      <c r="G820" s="27"/>
+      <c r="F820" s="26"/>
+      <c r="G820" s="26"/>
     </row>
     <row r="821" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F821" s="27"/>
-      <c r="G821" s="27"/>
+      <c r="F821" s="26"/>
+      <c r="G821" s="26"/>
     </row>
     <row r="822" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F822" s="27"/>
-      <c r="G822" s="27"/>
+      <c r="F822" s="26"/>
+      <c r="G822" s="26"/>
     </row>
     <row r="823" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F823" s="27"/>
-      <c r="G823" s="27"/>
+      <c r="F823" s="26"/>
+      <c r="G823" s="26"/>
     </row>
     <row r="824" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F824" s="27"/>
-      <c r="G824" s="27"/>
+      <c r="F824" s="26"/>
+      <c r="G824" s="26"/>
     </row>
     <row r="825" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F825" s="27"/>
-      <c r="G825" s="27"/>
+      <c r="F825" s="26"/>
+      <c r="G825" s="26"/>
     </row>
     <row r="826" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F826" s="27"/>
-      <c r="G826" s="27"/>
+      <c r="F826" s="26"/>
+      <c r="G826" s="26"/>
     </row>
     <row r="827" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F827" s="27"/>
-      <c r="G827" s="27"/>
+      <c r="F827" s="26"/>
+      <c r="G827" s="26"/>
     </row>
     <row r="828" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F828" s="27"/>
-      <c r="G828" s="27"/>
+      <c r="F828" s="26"/>
+      <c r="G828" s="26"/>
     </row>
     <row r="829" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F829" s="27"/>
-      <c r="G829" s="27"/>
+      <c r="F829" s="26"/>
+      <c r="G829" s="26"/>
     </row>
     <row r="830" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F830" s="27"/>
-      <c r="G830" s="27"/>
+      <c r="F830" s="26"/>
+      <c r="G830" s="26"/>
     </row>
     <row r="831" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F831" s="27"/>
-      <c r="G831" s="27"/>
+      <c r="F831" s="26"/>
+      <c r="G831" s="26"/>
     </row>
     <row r="832" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F832" s="27"/>
-      <c r="G832" s="27"/>
+      <c r="F832" s="26"/>
+      <c r="G832" s="26"/>
     </row>
     <row r="833" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F833" s="27"/>
-      <c r="G833" s="27"/>
+      <c r="F833" s="26"/>
+      <c r="G833" s="26"/>
     </row>
     <row r="834" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F834" s="27"/>
-      <c r="G834" s="27"/>
+      <c r="F834" s="26"/>
+      <c r="G834" s="26"/>
     </row>
     <row r="835" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F835" s="27"/>
-      <c r="G835" s="27"/>
+      <c r="F835" s="26"/>
+      <c r="G835" s="26"/>
     </row>
     <row r="836" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F836" s="27"/>
-      <c r="G836" s="27"/>
+      <c r="F836" s="26"/>
+      <c r="G836" s="26"/>
     </row>
     <row r="837" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F837" s="27"/>
-      <c r="G837" s="27"/>
+      <c r="F837" s="26"/>
+      <c r="G837" s="26"/>
     </row>
     <row r="838" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F838" s="27"/>
-      <c r="G838" s="27"/>
+      <c r="F838" s="26"/>
+      <c r="G838" s="26"/>
     </row>
     <row r="839" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F839" s="27"/>
-      <c r="G839" s="27"/>
+      <c r="F839" s="26"/>
+      <c r="G839" s="26"/>
     </row>
     <row r="840" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F840" s="27"/>
-      <c r="G840" s="27"/>
+      <c r="F840" s="26"/>
+      <c r="G840" s="26"/>
     </row>
     <row r="841" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F841" s="27"/>
-      <c r="G841" s="27"/>
+      <c r="F841" s="26"/>
+      <c r="G841" s="26"/>
     </row>
     <row r="842" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F842" s="27"/>
-      <c r="G842" s="27"/>
+      <c r="F842" s="26"/>
+      <c r="G842" s="26"/>
     </row>
     <row r="843" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F843" s="27"/>
-      <c r="G843" s="27"/>
+      <c r="F843" s="26"/>
+      <c r="G843" s="26"/>
     </row>
     <row r="844" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F844" s="27"/>
-      <c r="G844" s="27"/>
+      <c r="F844" s="26"/>
+      <c r="G844" s="26"/>
     </row>
     <row r="845" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F845" s="27"/>
-      <c r="G845" s="27"/>
+      <c r="F845" s="26"/>
+      <c r="G845" s="26"/>
     </row>
     <row r="846" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F846" s="27"/>
-      <c r="G846" s="27"/>
+      <c r="F846" s="26"/>
+      <c r="G846" s="26"/>
     </row>
     <row r="847" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F847" s="27"/>
-      <c r="G847" s="27"/>
+      <c r="F847" s="26"/>
+      <c r="G847" s="26"/>
     </row>
     <row r="848" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F848" s="27"/>
-      <c r="G848" s="27"/>
+      <c r="F848" s="26"/>
+      <c r="G848" s="26"/>
     </row>
     <row r="849" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F849" s="27"/>
-      <c r="G849" s="27"/>
+      <c r="F849" s="26"/>
+      <c r="G849" s="26"/>
     </row>
     <row r="850" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F850" s="27"/>
-      <c r="G850" s="27"/>
+      <c r="F850" s="26"/>
+      <c r="G850" s="26"/>
     </row>
     <row r="851" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F851" s="27"/>
-      <c r="G851" s="27"/>
+      <c r="F851" s="26"/>
+      <c r="G851" s="26"/>
     </row>
     <row r="852" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F852" s="27"/>
-      <c r="G852" s="27"/>
+      <c r="F852" s="26"/>
+      <c r="G852" s="26"/>
     </row>
     <row r="853" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F853" s="27"/>
-      <c r="G853" s="27"/>
+      <c r="F853" s="26"/>
+      <c r="G853" s="26"/>
     </row>
     <row r="854" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F854" s="27"/>
-      <c r="G854" s="27"/>
+      <c r="F854" s="26"/>
+      <c r="G854" s="26"/>
     </row>
     <row r="855" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F855" s="27"/>
-      <c r="G855" s="27"/>
+      <c r="F855" s="26"/>
+      <c r="G855" s="26"/>
     </row>
     <row r="856" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F856" s="27"/>
-      <c r="G856" s="27"/>
+      <c r="F856" s="26"/>
+      <c r="G856" s="26"/>
     </row>
     <row r="857" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F857" s="27"/>
-      <c r="G857" s="27"/>
+      <c r="F857" s="26"/>
+      <c r="G857" s="26"/>
     </row>
     <row r="858" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F858" s="27"/>
-      <c r="G858" s="27"/>
+      <c r="F858" s="26"/>
+      <c r="G858" s="26"/>
     </row>
     <row r="859" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F859" s="27"/>
-      <c r="G859" s="27"/>
+      <c r="F859" s="26"/>
+      <c r="G859" s="26"/>
     </row>
     <row r="860" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F860" s="27"/>
-      <c r="G860" s="27"/>
+      <c r="F860" s="26"/>
+      <c r="G860" s="26"/>
     </row>
     <row r="861" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F861" s="27"/>
-      <c r="G861" s="27"/>
+      <c r="F861" s="26"/>
+      <c r="G861" s="26"/>
     </row>
     <row r="862" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F862" s="27"/>
-      <c r="G862" s="27"/>
+      <c r="F862" s="26"/>
+      <c r="G862" s="26"/>
     </row>
     <row r="863" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F863" s="27"/>
-      <c r="G863" s="27"/>
+      <c r="F863" s="26"/>
+      <c r="G863" s="26"/>
     </row>
     <row r="864" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F864" s="27"/>
-      <c r="G864" s="27"/>
+      <c r="F864" s="26"/>
+      <c r="G864" s="26"/>
     </row>
     <row r="865" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F865" s="27"/>
-      <c r="G865" s="27"/>
+      <c r="F865" s="26"/>
+      <c r="G865" s="26"/>
     </row>
     <row r="866" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F866" s="27"/>
-      <c r="G866" s="27"/>
+      <c r="F866" s="26"/>
+      <c r="G866" s="26"/>
     </row>
     <row r="867" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F867" s="27"/>
-      <c r="G867" s="27"/>
+      <c r="F867" s="26"/>
+      <c r="G867" s="26"/>
     </row>
     <row r="868" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F868" s="27"/>
-      <c r="G868" s="27"/>
+      <c r="F868" s="26"/>
+      <c r="G868" s="26"/>
     </row>
     <row r="869" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F869" s="27"/>
-      <c r="G869" s="27"/>
+      <c r="F869" s="26"/>
+      <c r="G869" s="26"/>
     </row>
     <row r="870" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F870" s="27"/>
-      <c r="G870" s="27"/>
+      <c r="F870" s="26"/>
+      <c r="G870" s="26"/>
     </row>
     <row r="871" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F871" s="27"/>
-      <c r="G871" s="27"/>
+      <c r="F871" s="26"/>
+      <c r="G871" s="26"/>
     </row>
     <row r="872" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F872" s="27"/>
-      <c r="G872" s="27"/>
+      <c r="F872" s="26"/>
+      <c r="G872" s="26"/>
     </row>
     <row r="873" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F873" s="27"/>
-      <c r="G873" s="27"/>
+      <c r="F873" s="26"/>
+      <c r="G873" s="26"/>
     </row>
     <row r="874" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F874" s="27"/>
-      <c r="G874" s="27"/>
+      <c r="F874" s="26"/>
+      <c r="G874" s="26"/>
     </row>
     <row r="875" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F875" s="27"/>
-      <c r="G875" s="27"/>
+      <c r="F875" s="26"/>
+      <c r="G875" s="26"/>
     </row>
     <row r="876" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F876" s="27"/>
-      <c r="G876" s="27"/>
+      <c r="F876" s="26"/>
+      <c r="G876" s="26"/>
     </row>
     <row r="877" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F877" s="27"/>
-      <c r="G877" s="27"/>
+      <c r="F877" s="26"/>
+      <c r="G877" s="26"/>
     </row>
     <row r="878" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F878" s="27"/>
-      <c r="G878" s="27"/>
+      <c r="F878" s="26"/>
+      <c r="G878" s="26"/>
     </row>
     <row r="879" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F879" s="27"/>
-      <c r="G879" s="27"/>
+      <c r="F879" s="26"/>
+      <c r="G879" s="26"/>
     </row>
     <row r="880" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F880" s="27"/>
-      <c r="G880" s="27"/>
+      <c r="F880" s="26"/>
+      <c r="G880" s="26"/>
     </row>
     <row r="881" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F881" s="27"/>
-      <c r="G881" s="27"/>
+      <c r="F881" s="26"/>
+      <c r="G881" s="26"/>
     </row>
     <row r="882" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F882" s="27"/>
-      <c r="G882" s="27"/>
+      <c r="F882" s="26"/>
+      <c r="G882" s="26"/>
     </row>
     <row r="883" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F883" s="27"/>
-      <c r="G883" s="27"/>
+      <c r="F883" s="26"/>
+      <c r="G883" s="26"/>
     </row>
     <row r="884" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F884" s="27"/>
-      <c r="G884" s="27"/>
+      <c r="F884" s="26"/>
+      <c r="G884" s="26"/>
     </row>
     <row r="885" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F885" s="27"/>
-      <c r="G885" s="27"/>
+      <c r="F885" s="26"/>
+      <c r="G885" s="26"/>
     </row>
     <row r="886" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F886" s="27"/>
-      <c r="G886" s="27"/>
+      <c r="F886" s="26"/>
+      <c r="G886" s="26"/>
     </row>
     <row r="887" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F887" s="27"/>
-      <c r="G887" s="27"/>
+      <c r="F887" s="26"/>
+      <c r="G887" s="26"/>
     </row>
     <row r="888" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F888" s="27"/>
-      <c r="G888" s="27"/>
+      <c r="F888" s="26"/>
+      <c r="G888" s="26"/>
     </row>
     <row r="889" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F889" s="27"/>
-      <c r="G889" s="27"/>
+      <c r="F889" s="26"/>
+      <c r="G889" s="26"/>
     </row>
     <row r="890" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F890" s="27"/>
-      <c r="G890" s="27"/>
+      <c r="F890" s="26"/>
+      <c r="G890" s="26"/>
     </row>
     <row r="891" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F891" s="27"/>
-      <c r="G891" s="27"/>
+      <c r="F891" s="26"/>
+      <c r="G891" s="26"/>
     </row>
     <row r="892" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F892" s="27"/>
-      <c r="G892" s="27"/>
+      <c r="F892" s="26"/>
+      <c r="G892" s="26"/>
     </row>
     <row r="893" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F893" s="27"/>
-      <c r="G893" s="27"/>
+      <c r="F893" s="26"/>
+      <c r="G893" s="26"/>
     </row>
     <row r="894" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F894" s="27"/>
-      <c r="G894" s="27"/>
+      <c r="F894" s="26"/>
+      <c r="G894" s="26"/>
     </row>
     <row r="895" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F895" s="27"/>
-      <c r="G895" s="27"/>
+      <c r="F895" s="26"/>
+      <c r="G895" s="26"/>
     </row>
     <row r="896" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F896" s="27"/>
-      <c r="G896" s="27"/>
+      <c r="F896" s="26"/>
+      <c r="G896" s="26"/>
     </row>
     <row r="897" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F897" s="27"/>
-      <c r="G897" s="27"/>
+      <c r="F897" s="26"/>
+      <c r="G897" s="26"/>
     </row>
     <row r="898" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F898" s="27"/>
-      <c r="G898" s="27"/>
+      <c r="F898" s="26"/>
+      <c r="G898" s="26"/>
     </row>
     <row r="899" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F899" s="27"/>
-      <c r="G899" s="27"/>
+      <c r="F899" s="26"/>
+      <c r="G899" s="26"/>
     </row>
     <row r="900" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F900" s="27"/>
-      <c r="G900" s="27"/>
+      <c r="F900" s="26"/>
+      <c r="G900" s="26"/>
     </row>
     <row r="901" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F901" s="27"/>
-      <c r="G901" s="27"/>
+      <c r="F901" s="26"/>
+      <c r="G901" s="26"/>
     </row>
     <row r="902" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F902" s="27"/>
-      <c r="G902" s="27"/>
+      <c r="F902" s="26"/>
+      <c r="G902" s="26"/>
     </row>
     <row r="903" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F903" s="27"/>
-      <c r="G903" s="27"/>
+      <c r="F903" s="26"/>
+      <c r="G903" s="26"/>
     </row>
     <row r="904" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F904" s="27"/>
-      <c r="G904" s="27"/>
+      <c r="F904" s="26"/>
+      <c r="G904" s="26"/>
     </row>
     <row r="905" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F905" s="27"/>
-      <c r="G905" s="27"/>
+      <c r="F905" s="26"/>
+      <c r="G905" s="26"/>
     </row>
     <row r="906" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F906" s="27"/>
-      <c r="G906" s="27"/>
+      <c r="F906" s="26"/>
+      <c r="G906" s="26"/>
     </row>
     <row r="907" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F907" s="27"/>
-      <c r="G907" s="27"/>
+      <c r="F907" s="26"/>
+      <c r="G907" s="26"/>
     </row>
     <row r="908" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F908" s="27"/>
-      <c r="G908" s="27"/>
+      <c r="F908" s="26"/>
+      <c r="G908" s="26"/>
     </row>
     <row r="909" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F909" s="27"/>
-      <c r="G909" s="27"/>
+      <c r="F909" s="26"/>
+      <c r="G909" s="26"/>
     </row>
     <row r="910" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F910" s="27"/>
-      <c r="G910" s="27"/>
+      <c r="F910" s="26"/>
+      <c r="G910" s="26"/>
     </row>
     <row r="911" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F911" s="27"/>
-      <c r="G911" s="27"/>
+      <c r="F911" s="26"/>
+      <c r="G911" s="26"/>
     </row>
     <row r="912" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F912" s="27"/>
-      <c r="G912" s="27"/>
+      <c r="F912" s="26"/>
+      <c r="G912" s="26"/>
     </row>
     <row r="913" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F913" s="27"/>
-      <c r="G913" s="27"/>
+      <c r="F913" s="26"/>
+      <c r="G913" s="26"/>
     </row>
     <row r="914" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F914" s="27"/>
-      <c r="G914" s="27"/>
+      <c r="F914" s="26"/>
+      <c r="G914" s="26"/>
     </row>
     <row r="915" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F915" s="27"/>
-      <c r="G915" s="27"/>
+      <c r="F915" s="26"/>
+      <c r="G915" s="26"/>
     </row>
     <row r="916" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F916" s="27"/>
-      <c r="G916" s="27"/>
+      <c r="F916" s="26"/>
+      <c r="G916" s="26"/>
     </row>
     <row r="917" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F917" s="27"/>
-      <c r="G917" s="27"/>
+      <c r="F917" s="26"/>
+      <c r="G917" s="26"/>
     </row>
     <row r="918" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F918" s="27"/>
-      <c r="G918" s="27"/>
+      <c r="F918" s="26"/>
+      <c r="G918" s="26"/>
     </row>
     <row r="919" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F919" s="27"/>
-      <c r="G919" s="27"/>
+      <c r="F919" s="26"/>
+      <c r="G919" s="26"/>
     </row>
     <row r="920" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F920" s="27"/>
-      <c r="G920" s="27"/>
+      <c r="F920" s="26"/>
+      <c r="G920" s="26"/>
     </row>
     <row r="921" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F921" s="27"/>
-      <c r="G921" s="27"/>
+      <c r="F921" s="26"/>
+      <c r="G921" s="26"/>
     </row>
     <row r="922" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F922" s="27"/>
-      <c r="G922" s="27"/>
+      <c r="F922" s="26"/>
+      <c r="G922" s="26"/>
     </row>
     <row r="923" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F923" s="27"/>
-      <c r="G923" s="27"/>
+      <c r="F923" s="26"/>
+      <c r="G923" s="26"/>
     </row>
     <row r="924" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F924" s="27"/>
-      <c r="G924" s="27"/>
+      <c r="F924" s="26"/>
+      <c r="G924" s="26"/>
     </row>
     <row r="925" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F925" s="27"/>
-      <c r="G925" s="27"/>
+      <c r="F925" s="26"/>
+      <c r="G925" s="26"/>
     </row>
     <row r="926" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F926" s="27"/>
-      <c r="G926" s="27"/>
+      <c r="F926" s="26"/>
+      <c r="G926" s="26"/>
     </row>
     <row r="927" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F927" s="27"/>
-      <c r="G927" s="27"/>
+      <c r="F927" s="26"/>
+      <c r="G927" s="26"/>
     </row>
     <row r="928" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F928" s="27"/>
-      <c r="G928" s="27"/>
+      <c r="F928" s="26"/>
+      <c r="G928" s="26"/>
     </row>
     <row r="929" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F929" s="27"/>
-      <c r="G929" s="27"/>
+      <c r="F929" s="26"/>
+      <c r="G929" s="26"/>
     </row>
     <row r="930" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F930" s="27"/>
-      <c r="G930" s="27"/>
+      <c r="F930" s="26"/>
+      <c r="G930" s="26"/>
     </row>
     <row r="931" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F931" s="27"/>
-      <c r="G931" s="27"/>
+      <c r="F931" s="26"/>
+      <c r="G931" s="26"/>
     </row>
     <row r="932" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F932" s="27"/>
-      <c r="G932" s="27"/>
+      <c r="F932" s="26"/>
+      <c r="G932" s="26"/>
     </row>
     <row r="933" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F933" s="27"/>
-      <c r="G933" s="27"/>
+      <c r="F933" s="26"/>
+      <c r="G933" s="26"/>
     </row>
     <row r="934" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F934" s="27"/>
-      <c r="G934" s="27"/>
+      <c r="F934" s="26"/>
+      <c r="G934" s="26"/>
     </row>
     <row r="935" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F935" s="27"/>
-      <c r="G935" s="27"/>
+      <c r="F935" s="26"/>
+      <c r="G935" s="26"/>
     </row>
     <row r="936" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F936" s="27"/>
-      <c r="G936" s="27"/>
+      <c r="F936" s="26"/>
+      <c r="G936" s="26"/>
     </row>
     <row r="937" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F937" s="27"/>
-      <c r="G937" s="27"/>
+      <c r="F937" s="26"/>
+      <c r="G937" s="26"/>
     </row>
     <row r="938" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F938" s="27"/>
-      <c r="G938" s="27"/>
+      <c r="F938" s="26"/>
+      <c r="G938" s="26"/>
     </row>
     <row r="939" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F939" s="27"/>
-      <c r="G939" s="27"/>
+      <c r="F939" s="26"/>
+      <c r="G939" s="26"/>
     </row>
     <row r="940" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F940" s="27"/>
-      <c r="G940" s="27"/>
+      <c r="F940" s="26"/>
+      <c r="G940" s="26"/>
     </row>
     <row r="941" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F941" s="27"/>
-      <c r="G941" s="27"/>
+      <c r="F941" s="26"/>
+      <c r="G941" s="26"/>
     </row>
     <row r="942" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F942" s="27"/>
-      <c r="G942" s="27"/>
+      <c r="F942" s="26"/>
+      <c r="G942" s="26"/>
     </row>
     <row r="943" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F943" s="27"/>
-      <c r="G943" s="27"/>
+      <c r="F943" s="26"/>
+      <c r="G943" s="26"/>
     </row>
     <row r="944" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F944" s="27"/>
-      <c r="G944" s="27"/>
+      <c r="F944" s="26"/>
+      <c r="G944" s="26"/>
     </row>
     <row r="945" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F945" s="27"/>
-      <c r="G945" s="27"/>
+      <c r="F945" s="26"/>
+      <c r="G945" s="26"/>
     </row>
     <row r="946" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F946" s="27"/>
-      <c r="G946" s="27"/>
+      <c r="F946" s="26"/>
+      <c r="G946" s="26"/>
     </row>
     <row r="947" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F947" s="27"/>
-      <c r="G947" s="27"/>
+      <c r="F947" s="26"/>
+      <c r="G947" s="26"/>
     </row>
     <row r="948" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F948" s="27"/>
-      <c r="G948" s="27"/>
+      <c r="F948" s="26"/>
+      <c r="G948" s="26"/>
     </row>
     <row r="949" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F949" s="27"/>
-      <c r="G949" s="27"/>
+      <c r="F949" s="26"/>
+      <c r="G949" s="26"/>
     </row>
     <row r="950" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F950" s="27"/>
-      <c r="G950" s="27"/>
+      <c r="F950" s="26"/>
+      <c r="G950" s="26"/>
     </row>
     <row r="951" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F951" s="27"/>
-      <c r="G951" s="27"/>
+      <c r="F951" s="26"/>
+      <c r="G951" s="26"/>
     </row>
     <row r="952" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F952" s="27"/>
-      <c r="G952" s="27"/>
+      <c r="F952" s="26"/>
+      <c r="G952" s="26"/>
     </row>
     <row r="953" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F953" s="27"/>
-      <c r="G953" s="27"/>
+      <c r="F953" s="26"/>
+      <c r="G953" s="26"/>
     </row>
     <row r="954" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F954" s="27"/>
-      <c r="G954" s="27"/>
+      <c r="F954" s="26"/>
+      <c r="G954" s="26"/>
     </row>
     <row r="955" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F955" s="27"/>
-      <c r="G955" s="27"/>
+      <c r="F955" s="26"/>
+      <c r="G955" s="26"/>
     </row>
     <row r="956" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F956" s="27"/>
-      <c r="G956" s="27"/>
+      <c r="F956" s="26"/>
+      <c r="G956" s="26"/>
     </row>
     <row r="957" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F957" s="27"/>
-      <c r="G957" s="27"/>
+      <c r="F957" s="26"/>
+      <c r="G957" s="26"/>
     </row>
     <row r="958" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F958" s="27"/>
-      <c r="G958" s="27"/>
+      <c r="F958" s="26"/>
+      <c r="G958" s="26"/>
     </row>
     <row r="959" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F959" s="27"/>
-      <c r="G959" s="27"/>
+      <c r="F959" s="26"/>
+      <c r="G959" s="26"/>
     </row>
     <row r="960" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F960" s="27"/>
-      <c r="G960" s="27"/>
+      <c r="F960" s="26"/>
+      <c r="G960" s="26"/>
     </row>
     <row r="961" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F961" s="27"/>
-      <c r="G961" s="27"/>
+      <c r="F961" s="26"/>
+      <c r="G961" s="26"/>
     </row>
     <row r="962" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F962" s="27"/>
-      <c r="G962" s="27"/>
+      <c r="F962" s="26"/>
+      <c r="G962" s="26"/>
     </row>
     <row r="963" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F963" s="27"/>
-      <c r="G963" s="27"/>
+      <c r="F963" s="26"/>
+      <c r="G963" s="26"/>
     </row>
     <row r="964" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F964" s="27"/>
-      <c r="G964" s="27"/>
+      <c r="F964" s="26"/>
+      <c r="G964" s="26"/>
     </row>
     <row r="965" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F965" s="27"/>
-      <c r="G965" s="27"/>
+      <c r="F965" s="26"/>
+      <c r="G965" s="26"/>
     </row>
     <row r="966" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F966" s="27"/>
-      <c r="G966" s="27"/>
+      <c r="F966" s="26"/>
+      <c r="G966" s="26"/>
     </row>
     <row r="967" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F967" s="27"/>
-      <c r="G967" s="27"/>
+      <c r="F967" s="26"/>
+      <c r="G967" s="26"/>
     </row>
     <row r="968" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F968" s="27"/>
-      <c r="G968" s="27"/>
+      <c r="F968" s="26"/>
+      <c r="G968" s="26"/>
     </row>
     <row r="969" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F969" s="27"/>
-      <c r="G969" s="27"/>
+      <c r="F969" s="26"/>
+      <c r="G969" s="26"/>
     </row>
     <row r="970" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F970" s="27"/>
-      <c r="G970" s="27"/>
+      <c r="F970" s="26"/>
+      <c r="G970" s="26"/>
     </row>
     <row r="971" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F971" s="27"/>
-      <c r="G971" s="27"/>
+      <c r="F971" s="26"/>
+      <c r="G971" s="26"/>
     </row>
     <row r="972" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F972" s="27"/>
-      <c r="G972" s="27"/>
+      <c r="F972" s="26"/>
+      <c r="G972" s="26"/>
     </row>
     <row r="973" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F973" s="27"/>
-      <c r="G973" s="27"/>
+      <c r="F973" s="26"/>
+      <c r="G973" s="26"/>
     </row>
     <row r="974" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F974" s="27"/>
-      <c r="G974" s="27"/>
+      <c r="F974" s="26"/>
+      <c r="G974" s="26"/>
     </row>
     <row r="975" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F975" s="27"/>
-      <c r="G975" s="27"/>
+      <c r="F975" s="26"/>
+      <c r="G975" s="26"/>
     </row>
     <row r="976" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F976" s="27"/>
-      <c r="G976" s="27"/>
+      <c r="F976" s="26"/>
+      <c r="G976" s="26"/>
     </row>
     <row r="977" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F977" s="27"/>
-      <c r="G977" s="27"/>
+      <c r="F977" s="26"/>
+      <c r="G977" s="26"/>
     </row>
     <row r="978" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F978" s="27"/>
-      <c r="G978" s="27"/>
+      <c r="F978" s="26"/>
+      <c r="G978" s="26"/>
     </row>
     <row r="979" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F979" s="27"/>
-      <c r="G979" s="27"/>
+      <c r="F979" s="26"/>
+      <c r="G979" s="26"/>
     </row>
     <row r="980" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F980" s="27"/>
-      <c r="G980" s="27"/>
+      <c r="F980" s="26"/>
+      <c r="G980" s="26"/>
     </row>
     <row r="981" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F981" s="27"/>
-      <c r="G981" s="27"/>
+      <c r="F981" s="26"/>
+      <c r="G981" s="26"/>
     </row>
     <row r="982" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F982" s="27"/>
-      <c r="G982" s="27"/>
+      <c r="F982" s="26"/>
+      <c r="G982" s="26"/>
     </row>
     <row r="983" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F983" s="27"/>
-      <c r="G983" s="27"/>
+      <c r="F983" s="26"/>
+      <c r="G983" s="26"/>
     </row>
     <row r="984" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F984" s="27"/>
-      <c r="G984" s="27"/>
+      <c r="F984" s="26"/>
+      <c r="G984" s="26"/>
     </row>
     <row r="985" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F985" s="27"/>
-      <c r="G985" s="27"/>
+      <c r="F985" s="26"/>
+      <c r="G985" s="26"/>
     </row>
     <row r="986" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F986" s="27"/>
-      <c r="G986" s="27"/>
+      <c r="F986" s="26"/>
+      <c r="G986" s="26"/>
     </row>
     <row r="987" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F987" s="27"/>
-      <c r="G987" s="27"/>
+      <c r="F987" s="26"/>
+      <c r="G987" s="26"/>
     </row>
     <row r="988" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F988" s="27"/>
-      <c r="G988" s="27"/>
+      <c r="F988" s="26"/>
+      <c r="G988" s="26"/>
     </row>
     <row r="989" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F989" s="27"/>
-      <c r="G989" s="27"/>
+      <c r="F989" s="26"/>
+      <c r="G989" s="26"/>
     </row>
     <row r="990" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F990" s="27"/>
-      <c r="G990" s="27"/>
+      <c r="F990" s="26"/>
+      <c r="G990" s="26"/>
     </row>
     <row r="991" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F991" s="27"/>
-      <c r="G991" s="27"/>
+      <c r="F991" s="26"/>
+      <c r="G991" s="26"/>
     </row>
     <row r="992" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F992" s="27"/>
-      <c r="G992" s="27"/>
+      <c r="F992" s="26"/>
+      <c r="G992" s="26"/>
     </row>
     <row r="993" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F993" s="27"/>
-      <c r="G993" s="27"/>
+      <c r="F993" s="26"/>
+      <c r="G993" s="26"/>
     </row>
     <row r="994" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F994" s="27"/>
-      <c r="G994" s="27"/>
+      <c r="F994" s="26"/>
+      <c r="G994" s="26"/>
     </row>
     <row r="995" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F995" s="27"/>
-      <c r="G995" s="27"/>
+      <c r="F995" s="26"/>
+      <c r="G995" s="26"/>
     </row>
     <row r="996" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F996" s="27"/>
-      <c r="G996" s="27"/>
+      <c r="F996" s="26"/>
+      <c r="G996" s="26"/>
     </row>
     <row r="997" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F997" s="27"/>
-      <c r="G997" s="27"/>
+      <c r="F997" s="26"/>
+      <c r="G997" s="26"/>
     </row>
     <row r="998" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F998" s="27"/>
-      <c r="G998" s="27"/>
+      <c r="F998" s="26"/>
+      <c r="G998" s="26"/>
     </row>
     <row r="999" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F999" s="27"/>
-      <c r="G999" s="27"/>
+      <c r="F999" s="26"/>
+      <c r="G999" s="26"/>
     </row>
     <row r="1000" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F1000" s="27"/>
-      <c r="G1000" s="27"/>
+      <c r="F1000" s="26"/>
+      <c r="G1000" s="26"/>
     </row>
     <row r="1001" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F1001" s="27"/>
-      <c r="G1001" s="27"/>
+      <c r="F1001" s="26"/>
+      <c r="G1001" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9819,8 +10586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F564710F-4DB2-F641-A78D-918672A028FE}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9831,26 +10598,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>1325</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -10280,26 +11047,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>1493</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -43044,7 +43811,7 @@
   <dimension ref="A1:AJ1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43080,44 +43847,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -51207,4 +51974,1093 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6367603-3AC6-5544-9549-E4754E32E7B4}">
+  <dimension ref="A1:AF130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="33" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="33" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="33" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="33" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="33" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="33" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="33" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="33" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="33" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="33" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="33" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="33" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="33" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="33" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="33" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="33" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="33" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="33" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="33" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="33" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="33" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="33" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="33" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="33" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="33" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="33" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="33" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="33" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="33" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="33" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="33" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="33" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="33" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="33" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="33" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="33" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="33" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="33" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="33" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="33" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="33" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="33" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="33" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="33" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="33" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="33" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="33" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="33" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="33" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="33" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="33" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="33" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="33" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>